--- a/data-raw/metar_config.xlsx
+++ b/data-raw/metar_config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mat\Documents\R\metar\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17FAB17E-ECEF-47CE-89FA-406BF56E5009}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE1D0DF-943C-47DD-96D8-2255EFE85C51}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="690" yWindow="1500" windowWidth="9210" windowHeight="9570" tabRatio="731" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" tabRatio="731" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PARA" sheetId="4" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1554" uniqueCount="1158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1575" uniqueCount="1168">
   <si>
     <t>FG</t>
   </si>
@@ -3315,9 +3315,6 @@
     <t>FT</t>
   </si>
   <si>
-    <t>cld_height</t>
-  </si>
-  <si>
     <t>int</t>
   </si>
   <si>
@@ -3517,6 +3514,39 @@
   </si>
   <si>
     <t>white</t>
+  </si>
+  <si>
+    <t>cld_hgt</t>
+  </si>
+  <si>
+    <t>Cloud Height Minimum</t>
+  </si>
+  <si>
+    <t>cld_hgt_min</t>
+  </si>
+  <si>
+    <t>cld_hgt_max</t>
+  </si>
+  <si>
+    <t>Cloud Height Maximum</t>
+  </si>
+  <si>
+    <t>ceiling</t>
+  </si>
+  <si>
+    <t>Ceiling</t>
+  </si>
+  <si>
+    <t>CAXX 271750Z AUTO 29012KT M19/M22</t>
+  </si>
+  <si>
+    <t>Canada Automated</t>
+  </si>
+  <si>
+    <t>AUTO /////KT //// ////// 17/// Q//// NOSIG</t>
+  </si>
+  <si>
+    <t>Empty groups</t>
   </si>
 </sst>
 </file>
@@ -3850,10 +3880,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2900C6E8-A8B5-4407-A7A1-C33011B0ABA6}">
-  <dimension ref="A1:I60"/>
+  <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34:C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3874,7 +3904,7 @@
         <v>115</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="C1" t="s">
         <v>116</v>
@@ -3906,7 +3936,7 @@
         <v>152</v>
       </c>
       <c r="C2" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="F2" t="s">
         <v>122</v>
@@ -3957,7 +3987,7 @@
     </row>
     <row r="5" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>1090</v>
+        <v>1157</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>152</v>
@@ -3986,161 +4016,186 @@
     </row>
     <row r="6" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>1083</v>
+        <v>1159</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>152</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>1084</v>
+        <v>1158</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>1089</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>122</v>
+        <v>1056</v>
       </c>
       <c r="G6" s="10" t="b">
         <v>0</v>
       </c>
+      <c r="H6" s="10">
+        <v>0</v>
+      </c>
+      <c r="I6" s="10">
+        <v>99999</v>
+      </c>
     </row>
     <row r="7" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>129</v>
+        <v>1160</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>120</v>
+        <v>152</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>130</v>
+        <v>1161</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>1089</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>122</v>
+        <v>1056</v>
       </c>
       <c r="G7" s="10" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>123</v>
+      <c r="H7" s="10">
+        <v>0</v>
+      </c>
+      <c r="I7" s="10">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>1083</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="C8" t="s">
-        <v>124</v>
-      </c>
-      <c r="F8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>1084</v>
+      </c>
+      <c r="F8" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="G8" t="b">
+      <c r="G8" s="10" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>120</v>
+    <row r="9" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>1162</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="C9" t="s">
-        <v>121</v>
+        <v>152</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>185</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="G9" t="b">
+      <c r="G9" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>173</v>
+      <c r="H9" s="10">
+        <v>0</v>
+      </c>
+      <c r="I9" s="10">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>129</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="C10" t="s">
-        <v>174</v>
+      <c r="C10" s="10" t="s">
+        <v>130</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="G10" t="b">
+      <c r="G10" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>179</v>
+        <v>123</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>120</v>
       </c>
       <c r="C11" t="s">
-        <v>180</v>
-      </c>
-      <c r="F11" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="F11" t="s">
         <v>122</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
       </c>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>120</v>
       </c>
       <c r="C12" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1091</v>
+        <v>173</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="C13" t="s">
-        <v>1092</v>
-      </c>
-      <c r="F13" t="s">
-        <v>1056</v>
+        <v>174</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>122</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
       </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13">
-        <v>3</v>
-      </c>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1093</v>
+        <v>179</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="C14" t="s">
-        <v>1092</v>
+        <v>180</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>122</v>
@@ -4148,199 +4203,198 @@
       <c r="G14" t="b">
         <v>0</v>
       </c>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>154</v>
+        <v>126</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="C15" t="s">
-        <v>188</v>
-      </c>
-      <c r="F15" t="s">
-        <v>122</v>
+        <v>127</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>128</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>169</v>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>157</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="F16" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16" t="s">
+        <v>158</v>
+      </c>
+      <c r="F16" t="s">
+        <v>122</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="F17" s="10" t="s">
         <v>1056</v>
       </c>
-      <c r="G16" s="10" t="b">
+      <c r="G17" t="b">
         <v>0</v>
       </c>
-      <c r="H16" s="10">
-        <v>850</v>
-      </c>
-      <c r="I16" s="10">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="G17" s="10" t="b">
-        <v>1</v>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>153</v>
+        <v>1090</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C18" t="s">
-        <v>1057</v>
+        <v>1091</v>
       </c>
       <c r="F18" t="s">
-        <v>122</v>
+        <v>1056</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>1053</v>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>1092</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="C19" t="s">
-        <v>1052</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>184</v>
+        <v>154</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>1091</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>1056</v>
-      </c>
-      <c r="G19" t="b">
+        <v>122</v>
+      </c>
+      <c r="G19" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>1060</v>
+    </row>
+    <row r="20" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>154</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="C20" t="s">
-        <v>1062</v>
-      </c>
-      <c r="F20" t="s">
-        <v>1063</v>
-      </c>
-      <c r="G20" t="b">
+        <v>154</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G20" s="10" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1050</v>
+        <v>1117</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C21" t="s">
-        <v>1051</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>184</v>
+        <v>1118</v>
       </c>
       <c r="F21" t="s">
-        <v>1056</v>
+        <v>122</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>9999</v>
-      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>1059</v>
+        <v>169</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="C22" t="s">
-        <v>1061</v>
-      </c>
-      <c r="F22" t="s">
-        <v>1063</v>
+        <v>170</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>1056</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
       </c>
+      <c r="H22">
+        <v>850</v>
+      </c>
+      <c r="I22">
+        <v>1100</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1054</v>
+        <v>166</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="C23" t="s">
-        <v>1055</v>
-      </c>
-      <c r="F23" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="F23" t="s">
         <v>122</v>
       </c>
       <c r="G23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1048</v>
+        <v>153</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>153</v>
       </c>
       <c r="C24" t="s">
-        <v>1049</v>
+        <v>1057</v>
       </c>
       <c r="F24" t="s">
         <v>122</v>
@@ -4351,13 +4405,13 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1058</v>
+        <v>1053</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>153</v>
       </c>
       <c r="C25" t="s">
-        <v>1047</v>
+        <v>1052</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>184</v>
@@ -4377,36 +4431,36 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1043</v>
+        <v>1060</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>153</v>
       </c>
       <c r="C26" t="s">
-        <v>1044</v>
-      </c>
-      <c r="F26" t="s">
-        <v>122</v>
-      </c>
-      <c r="G26" s="10" t="b">
+        <v>1062</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>1063</v>
+      </c>
+      <c r="G26" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>1045</v>
+        <v>1050</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>153</v>
       </c>
       <c r="C27" t="s">
-        <v>1046</v>
+        <v>1051</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F27" t="s">
-        <v>131</v>
+        <v>1056</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
@@ -4415,72 +4469,72 @@
         <v>0</v>
       </c>
       <c r="I27">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
-        <v>125</v>
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>1059</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>1112</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>1106</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="G28" s="10" t="b">
+        <v>153</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1061</v>
+      </c>
+      <c r="F28" t="s">
+        <v>1063</v>
+      </c>
+      <c r="G28" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
-        <v>1103</v>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>1054</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>1112</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>1105</v>
-      </c>
-      <c r="F29" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1055</v>
+      </c>
+      <c r="F29" t="s">
         <v>122</v>
       </c>
       <c r="G29" s="10" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
-        <v>1104</v>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>1048</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>1112</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>1105</v>
-      </c>
-      <c r="F30" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1049</v>
+      </c>
+      <c r="F30" t="s">
         <v>122</v>
       </c>
-      <c r="G30" s="10" t="b">
+      <c r="G30" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
-        <v>1097</v>
+        <v>1058</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>1112</v>
+        <v>153</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>1095</v>
+        <v>1047</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F31" s="10" t="s">
         <v>1056</v>
@@ -4489,73 +4543,64 @@
         <v>0</v>
       </c>
       <c r="H31" s="10">
-        <v>-180</v>
+        <v>0</v>
       </c>
       <c r="I31" s="10">
-        <v>180</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="32" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>1098</v>
+        <v>1043</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>1112</v>
+        <v>153</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>1096</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>183</v>
+        <v>1044</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>1056</v>
+        <v>122</v>
       </c>
       <c r="G32" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="H32" s="10">
-        <v>-90</v>
-      </c>
-      <c r="I32" s="10">
-        <v>90</v>
-      </c>
     </row>
     <row r="33" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>1099</v>
+        <v>1045</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>1112</v>
+        <v>153</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>1100</v>
+        <v>1046</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>1056</v>
+        <v>131</v>
       </c>
       <c r="G33" s="10" t="b">
         <v>0</v>
       </c>
       <c r="H33" s="10">
-        <v>-999</v>
+        <v>0</v>
       </c>
       <c r="I33" s="10">
-        <v>9999</v>
+        <v>360</v>
       </c>
     </row>
     <row r="34" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
-        <v>1101</v>
+        <v>125</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>1102</v>
+        <v>1105</v>
       </c>
       <c r="F34" s="10" t="s">
         <v>122</v>
@@ -4566,13 +4611,13 @@
     </row>
     <row r="35" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
-        <v>1107</v>
+        <v>1102</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>1113</v>
+        <v>1104</v>
       </c>
       <c r="F35" s="10" t="s">
         <v>122</v>
@@ -4583,13 +4628,13 @@
     </row>
     <row r="36" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
-        <v>1114</v>
+        <v>1103</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>1115</v>
+        <v>1104</v>
       </c>
       <c r="F36" s="10" t="s">
         <v>122</v>
@@ -4598,164 +4643,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>1116</v>
+    <row r="37" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="10" t="s">
+        <v>1096</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>1112</v>
-      </c>
-      <c r="C37" t="s">
-        <v>1117</v>
-      </c>
-      <c r="F37" t="s">
-        <v>122</v>
-      </c>
-      <c r="G37" t="b">
+        <v>1111</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>1056</v>
+      </c>
+      <c r="G37" s="10" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>175</v>
+      <c r="H37" s="10">
+        <v>-180</v>
+      </c>
+      <c r="I37" s="10">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="10" t="s">
+        <v>1097</v>
       </c>
       <c r="B38" s="10" t="s">
         <v>1111</v>
       </c>
-      <c r="C38" t="s">
-        <v>176</v>
-      </c>
-      <c r="F38" t="s">
-        <v>122</v>
-      </c>
-      <c r="G38" t="b">
+      <c r="C38" s="10" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>1056</v>
+      </c>
+      <c r="G38" s="10" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>177</v>
+      <c r="H38" s="10">
+        <v>-90</v>
+      </c>
+      <c r="I38" s="10">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="10" t="s">
+        <v>1098</v>
       </c>
       <c r="B39" s="10" t="s">
         <v>1111</v>
       </c>
-      <c r="C39" t="s">
-        <v>178</v>
-      </c>
-      <c r="F39" t="s">
-        <v>122</v>
-      </c>
-      <c r="G39" t="b">
+      <c r="C39" s="10" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>1056</v>
+      </c>
+      <c r="G39" s="10" t="b">
         <v>0</v>
+      </c>
+      <c r="H39" s="10">
+        <v>-999</v>
+      </c>
+      <c r="I39" s="10">
+        <v>9999</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>164</v>
+        <v>1100</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>161</v>
+        <v>1111</v>
       </c>
       <c r="C40" t="s">
-        <v>165</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>186</v>
+        <v>1101</v>
       </c>
       <c r="F40" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
       </c>
-      <c r="H40">
-        <v>-60</v>
-      </c>
-      <c r="I40">
-        <v>30</v>
-      </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>1081</v>
+        <v>1106</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>161</v>
+        <v>1111</v>
       </c>
       <c r="C41" t="s">
-        <v>163</v>
-      </c>
-      <c r="E41" s="10" t="s">
-        <v>160</v>
+        <v>1112</v>
       </c>
       <c r="F41" t="s">
         <v>122</v>
       </c>
       <c r="G41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>161</v>
+        <v>1113</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>161</v>
+        <v>1111</v>
       </c>
       <c r="C42" t="s">
-        <v>162</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>186</v>
+        <v>1114</v>
       </c>
       <c r="F42" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="G42" t="b">
         <v>0</v>
       </c>
-      <c r="H42">
-        <v>-90</v>
-      </c>
-      <c r="I42">
-        <v>60</v>
-      </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>1080</v>
+        <v>1115</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>161</v>
+        <v>1111</v>
       </c>
       <c r="C43" t="s">
-        <v>159</v>
-      </c>
-      <c r="E43" s="10" t="s">
-        <v>160</v>
+        <v>1116</v>
       </c>
       <c r="F43" t="s">
         <v>122</v>
       </c>
       <c r="G43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>141</v>
+        <v>1110</v>
       </c>
       <c r="C44" t="s">
-        <v>149</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="F44" t="s">
-        <v>1056</v>
+        <v>122</v>
       </c>
       <c r="G44" t="b">
         <v>0</v>
@@ -4763,16 +4808,13 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>141</v>
+        <v>1110</v>
       </c>
       <c r="C45" t="s">
-        <v>151</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F45" t="s">
         <v>122</v>
@@ -4783,292 +4825,283 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="C46" t="s">
-        <v>147</v>
+        <v>165</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>186</v>
       </c>
       <c r="F46" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="10" t="s">
-        <v>141</v>
+      <c r="H46">
+        <v>-60</v>
+      </c>
+      <c r="I46">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>1081</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="F47" s="10" t="s">
-        <v>1056</v>
-      </c>
-      <c r="G47" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47" s="10">
-        <v>0</v>
-      </c>
-      <c r="I47" s="10">
-        <v>99999</v>
+        <v>161</v>
+      </c>
+      <c r="C47" t="s">
+        <v>163</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="F47" t="s">
+        <v>122</v>
+      </c>
+      <c r="G47" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="C48" t="s">
-        <v>144</v>
-      </c>
-      <c r="E48" s="10" t="s">
-        <v>145</v>
+        <v>162</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>186</v>
       </c>
       <c r="F48" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="G48" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>-90</v>
+      </c>
+      <c r="I48">
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>155</v>
+        <v>1080</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="C49" t="s">
-        <v>156</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>185</v>
+        <v>159</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>160</v>
       </c>
       <c r="F49" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49">
-        <v>0</v>
-      </c>
-      <c r="I49">
-        <v>99999</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>1068</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="10" t="s">
+        <v>148</v>
       </c>
       <c r="B50" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="C50" t="s">
-        <v>1069</v>
-      </c>
-      <c r="E50" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="F50" t="s">
-        <v>122</v>
-      </c>
-      <c r="G50" t="b">
-        <v>1</v>
+      <c r="C50" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>1056</v>
+      </c>
+      <c r="G50" s="10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="10" t="s">
-        <v>114</v>
+      <c r="A51" t="s">
+        <v>150</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>1109</v>
+        <v>141</v>
       </c>
       <c r="C51" t="s">
-        <v>1070</v>
+        <v>151</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>183</v>
       </c>
       <c r="F51" t="s">
-        <v>1056</v>
+        <v>122</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
-      <c r="H51">
-        <v>1</v>
-      </c>
-      <c r="I51">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="10" t="s">
-        <v>112</v>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>146</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>1109</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="D52" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="F52" s="10" t="s">
-        <v>1056</v>
-      </c>
-      <c r="G52" s="10" t="b">
+        <v>141</v>
+      </c>
+      <c r="C52" t="s">
+        <v>147</v>
+      </c>
+      <c r="F52" t="s">
+        <v>122</v>
+      </c>
+      <c r="G52" t="b">
         <v>0</v>
-      </c>
-      <c r="H52" s="10">
-        <v>1</v>
-      </c>
-      <c r="I52" s="10">
-        <v>360</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>1109</v>
+        <v>141</v>
       </c>
       <c r="C53" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F53" t="s">
         <v>1056</v>
       </c>
-      <c r="G53" s="10" t="b">
+      <c r="G53" t="b">
         <v>0</v>
       </c>
       <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C54" t="s">
+        <v>144</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="F54" t="s">
+        <v>122</v>
+      </c>
+      <c r="G54" t="b">
         <v>1</v>
       </c>
-      <c r="I53">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>132</v>
-      </c>
-      <c r="B54" s="10" t="s">
-        <v>1109</v>
-      </c>
-      <c r="C54" t="s">
-        <v>133</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>1067</v>
-      </c>
-      <c r="F54" s="10" t="s">
-        <v>1056</v>
-      </c>
-      <c r="G54" s="10" t="b">
+    </row>
+    <row r="55" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="F55" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="G55" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="H54">
+      <c r="H55" s="10">
         <v>0</v>
       </c>
-      <c r="I54">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>136</v>
-      </c>
-      <c r="B55" s="10" t="s">
-        <v>1109</v>
-      </c>
-      <c r="C55" t="s">
-        <v>137</v>
-      </c>
-      <c r="E55" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="F55" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="G55" s="10" t="b">
-        <v>1</v>
+      <c r="I55" s="10">
+        <v>99999</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>134</v>
+        <v>1068</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>1109</v>
+        <v>141</v>
       </c>
       <c r="C56" t="s">
-        <v>135</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>1067</v>
-      </c>
-      <c r="F56" s="10" t="s">
-        <v>1056</v>
+        <v>1069</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="F56" t="s">
+        <v>122</v>
       </c>
       <c r="G56" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56">
-        <v>0</v>
-      </c>
-      <c r="I56">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>171</v>
+        <v>114</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>171</v>
+        <v>1108</v>
       </c>
       <c r="C57" t="s">
-        <v>172</v>
+        <v>1070</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>183</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>122</v>
+        <v>1056</v>
       </c>
       <c r="G57" s="10" t="b">
         <v>0</v>
       </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <v>360</v>
+      </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>1064</v>
+        <v>112</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>1122</v>
-      </c>
-      <c r="C58" s="10" t="s">
-        <v>1065</v>
+        <v>1108</v>
+      </c>
+      <c r="C58" t="s">
+        <v>139</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>1066</v>
+        <v>183</v>
       </c>
       <c r="F58" s="10" t="s">
         <v>1056</v>
@@ -5077,52 +5110,133 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58">
-        <v>100</v>
+        <v>360</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>157</v>
+        <v>113</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>120</v>
+        <v>1108</v>
       </c>
       <c r="C59" t="s">
-        <v>158</v>
+        <v>140</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>183</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>122</v>
+        <v>1056</v>
       </c>
       <c r="G59" s="10" t="b">
         <v>0</v>
       </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="I59">
+        <v>360</v>
+      </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="10" t="s">
-        <v>1118</v>
+      <c r="A60" t="s">
+        <v>132</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>1119</v>
-      </c>
-      <c r="D60" s="10"/>
+        <v>1108</v>
+      </c>
+      <c r="C60" t="s">
+        <v>133</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>1067</v>
+      </c>
       <c r="F60" s="10" t="s">
-        <v>122</v>
+        <v>1056</v>
       </c>
       <c r="G60" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="H60" s="10"/>
-      <c r="I60" s="10"/>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>136</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="F61" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G61" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>134</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C62" t="s">
+        <v>135</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F62" s="10" t="s">
+        <v>1056</v>
+      </c>
+      <c r="G62" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="D63" s="10"/>
+      <c r="F63" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G63" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H63" s="10"/>
+      <c r="I63" s="10"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I59">
-    <sortCondition ref="B1:B59"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I63">
+    <sortCondition ref="B1:B63"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5130,10 +5244,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AB3F69E-B179-4C43-80DD-D8065CE98EE1}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5173,7 +5287,7 @@
         <v>180</v>
       </c>
       <c r="C3" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -5228,7 +5342,7 @@
         <v>1032</v>
       </c>
       <c r="C8" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -5302,10 +5416,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="C15" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -5390,10 +5504,32 @@
         <v>22</v>
       </c>
       <c r="B23" s="10" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C23" s="10" t="s">
         <v>1125</v>
       </c>
-      <c r="C23" s="10" t="s">
-        <v>1126</v>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="10">
+        <v>23</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="10">
+        <v>24</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1166</v>
       </c>
     </row>
   </sheetData>
@@ -5711,7 +5847,7 @@
         <v>90</v>
       </c>
       <c r="E1" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -5988,24 +6124,24 @@
         <v>41</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B22" t="s">
         <v>1120</v>
       </c>
-      <c r="B22" t="s">
-        <v>1121</v>
-      </c>
       <c r="C22" s="10" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="D22" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -6013,7 +6149,7 @@
         <v>482</v>
       </c>
       <c r="B23" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="C23" t="s">
         <v>73</v>
@@ -6022,7 +6158,7 @@
         <v>87</v>
       </c>
       <c r="E23" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -6039,7 +6175,7 @@
         <v>87</v>
       </c>
       <c r="E24" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
   </sheetData>
@@ -6103,10 +6239,10 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B6" t="s">
         <v>1120</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1121</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -6114,7 +6250,7 @@
         <v>73</v>
       </c>
       <c r="B7" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
   </sheetData>
@@ -6202,10 +6338,10 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>1120</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>1121</v>
       </c>
     </row>
   </sheetData>
@@ -9645,7 +9781,7 @@
         <v>103</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>191</v>
@@ -10236,7 +10372,7 @@
     </row>
     <row r="34" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="B34" s="10">
         <v>1</v>
@@ -10251,7 +10387,7 @@
         <v>25</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="J34" s="8" t="s">
         <v>231</v>
@@ -10259,7 +10395,7 @@
     </row>
     <row r="35" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="B35" s="10">
         <v>2</v>
@@ -10268,13 +10404,13 @@
         <v>79</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E35" s="9" t="s">
         <v>79</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J35" s="8" t="s">
         <v>231</v>
@@ -10282,7 +10418,7 @@
     </row>
     <row r="36" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="B36" s="10">
         <v>3</v>
@@ -10291,13 +10427,13 @@
         <v>81</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E36" s="9" t="s">
         <v>23</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="J36" s="8" t="s">
         <v>231</v>
@@ -10305,7 +10441,7 @@
     </row>
     <row r="37" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="B37" s="10">
         <v>4</v>
@@ -10320,7 +10456,7 @@
         <v>77</v>
       </c>
       <c r="H37" s="10" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="J37" s="8" t="s">
         <v>231</v>
@@ -10328,22 +10464,22 @@
     </row>
     <row r="38" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="B38" s="10">
         <v>5</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E38" s="9" t="s">
         <v>61</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="J38" s="8" t="s">
         <v>231</v>
@@ -10351,13 +10487,13 @@
     </row>
     <row r="39" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="B39" s="10">
         <v>6</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="D39" s="9" t="s">
         <v>93</v>
@@ -10366,7 +10502,7 @@
         <v>49</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="J39" s="8" t="s">
         <v>231</v>
@@ -10374,13 +10510,13 @@
     </row>
     <row r="40" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="B40" s="10">
         <v>7</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="D40" s="9" t="s">
         <v>218</v>
@@ -10389,7 +10525,7 @@
         <v>50</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="J40" s="8" t="s">
         <v>231</v>
@@ -10397,7 +10533,7 @@
     </row>
     <row r="41" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="B41" s="10">
         <v>8</v>
@@ -10412,7 +10548,7 @@
         <v>1</v>
       </c>
       <c r="H41" s="10" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="J41" s="8" t="s">
         <v>231</v>
@@ -10420,16 +10556,16 @@
     </row>
     <row r="42" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="B42" s="10">
         <v>9</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="E42" s="9"/>
       <c r="J42" s="8" t="s">
@@ -10438,13 +10574,13 @@
     </row>
     <row r="43" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="B43" s="10">
         <v>10</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="D43" s="9" t="s">
         <v>214</v>
@@ -10456,16 +10592,16 @@
     </row>
     <row r="44" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="B44" s="10">
         <v>11</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="E44" s="9"/>
       <c r="J44" s="8" t="s">
@@ -10474,16 +10610,16 @@
     </row>
     <row r="45" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="B45" s="10">
         <v>12</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="E45" s="9"/>
       <c r="J45" s="8" t="s">
@@ -10492,20 +10628,20 @@
     </row>
     <row r="46" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="B46" s="10">
         <v>13</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="E46" s="9"/>
       <c r="H46" s="10" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="J46" s="8" t="s">
         <v>231</v>

--- a/data-raw/metar_config.xlsx
+++ b/data-raw/metar_config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mat\Documents\R\metar\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE1D0DF-943C-47DD-96D8-2255EFE85C51}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46BE9786-FD14-4914-B5E1-C0D07DFCC374}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" tabRatio="731" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1575" uniqueCount="1168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1580" uniqueCount="1170">
   <si>
     <t>FG</t>
   </si>
@@ -3547,6 +3547,12 @@
   </si>
   <si>
     <t>Empty groups</t>
+  </si>
+  <si>
+    <t>rwc</t>
+  </si>
+  <si>
+    <t>Runway Condition</t>
   </si>
 </sst>
 </file>
@@ -3880,10 +3886,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2900C6E8-A8B5-4407-A7A1-C33011B0ABA6}">
-  <dimension ref="A1:I63"/>
+  <dimension ref="A1:I64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34:C42"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4516,6 +4522,9 @@
       <c r="C30" t="s">
         <v>1049</v>
       </c>
+      <c r="E30" s="10" t="s">
+        <v>145</v>
+      </c>
       <c r="F30" t="s">
         <v>122</v>
       </c>
@@ -4594,13 +4603,13 @@
     </row>
     <row r="34" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
-        <v>125</v>
+        <v>1168</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>1111</v>
+        <v>1168</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>1105</v>
+        <v>1169</v>
       </c>
       <c r="F34" s="10" t="s">
         <v>122</v>
@@ -4611,13 +4620,13 @@
     </row>
     <row r="35" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
-        <v>1102</v>
+        <v>125</v>
       </c>
       <c r="B35" s="10" t="s">
         <v>1111</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="F35" s="10" t="s">
         <v>122</v>
@@ -4628,7 +4637,7 @@
     </row>
     <row r="36" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B36" s="10" t="s">
         <v>1111</v>
@@ -4645,39 +4654,30 @@
     </row>
     <row r="37" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
-        <v>1096</v>
+        <v>1103</v>
       </c>
       <c r="B37" s="10" t="s">
         <v>1111</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>1094</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>183</v>
+        <v>1104</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>1056</v>
+        <v>122</v>
       </c>
       <c r="G37" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="H37" s="10">
-        <v>-180</v>
-      </c>
-      <c r="I37" s="10">
-        <v>180</v>
-      </c>
     </row>
     <row r="38" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="B38" s="10" t="s">
         <v>1111</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="D38" s="10" t="s">
         <v>183</v>
@@ -4689,24 +4689,24 @@
         <v>0</v>
       </c>
       <c r="H38" s="10">
-        <v>-90</v>
+        <v>-180</v>
       </c>
       <c r="I38" s="10">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="39" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="B39" s="10" t="s">
         <v>1111</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F39" s="10" t="s">
         <v>1056</v>
@@ -4715,38 +4715,47 @@
         <v>0</v>
       </c>
       <c r="H39" s="10">
-        <v>-999</v>
+        <v>-90</v>
       </c>
       <c r="I39" s="10">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>1100</v>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="10" t="s">
+        <v>1098</v>
       </c>
       <c r="B40" s="10" t="s">
         <v>1111</v>
       </c>
-      <c r="C40" t="s">
-        <v>1101</v>
-      </c>
-      <c r="F40" t="s">
-        <v>122</v>
-      </c>
-      <c r="G40" t="b">
+      <c r="C40" s="10" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>1056</v>
+      </c>
+      <c r="G40" s="10" t="b">
         <v>0</v>
+      </c>
+      <c r="H40" s="10">
+        <v>-999</v>
+      </c>
+      <c r="I40" s="10">
+        <v>9999</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>1106</v>
+        <v>1100</v>
       </c>
       <c r="B41" s="10" t="s">
         <v>1111</v>
       </c>
       <c r="C41" t="s">
-        <v>1112</v>
+        <v>1101</v>
       </c>
       <c r="F41" t="s">
         <v>122</v>
@@ -4757,13 +4766,13 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>1113</v>
+        <v>1106</v>
       </c>
       <c r="B42" s="10" t="s">
         <v>1111</v>
       </c>
       <c r="C42" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="F42" t="s">
         <v>122</v>
@@ -4774,13 +4783,13 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="B43" s="10" t="s">
         <v>1111</v>
       </c>
       <c r="C43" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="F43" t="s">
         <v>122</v>
@@ -4791,13 +4800,13 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>175</v>
+        <v>1115</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="C44" t="s">
-        <v>176</v>
+        <v>1116</v>
       </c>
       <c r="F44" t="s">
         <v>122</v>
@@ -4808,13 +4817,13 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B45" s="10" t="s">
         <v>1110</v>
       </c>
       <c r="C45" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F45" t="s">
         <v>122</v>
@@ -4825,145 +4834,145 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>161</v>
+        <v>1110</v>
       </c>
       <c r="C46" t="s">
-        <v>165</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="F46" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
       </c>
-      <c r="H46">
-        <v>-60</v>
-      </c>
-      <c r="I46">
-        <v>30</v>
-      </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>1081</v>
+        <v>164</v>
       </c>
       <c r="B47" s="10" t="s">
         <v>161</v>
       </c>
       <c r="C47" t="s">
-        <v>163</v>
-      </c>
-      <c r="E47" s="10" t="s">
-        <v>160</v>
+        <v>165</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>186</v>
       </c>
       <c r="F47" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="G47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>-60</v>
+      </c>
+      <c r="I47">
+        <v>30</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>161</v>
+        <v>1081</v>
       </c>
       <c r="B48" s="10" t="s">
         <v>161</v>
       </c>
       <c r="C48" t="s">
-        <v>162</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>186</v>
+        <v>163</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>160</v>
       </c>
       <c r="F48" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="G48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48">
-        <v>-90</v>
-      </c>
-      <c r="I48">
-        <v>60</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>1080</v>
+        <v>161</v>
       </c>
       <c r="B49" s="10" t="s">
         <v>161</v>
       </c>
       <c r="C49" t="s">
+        <v>162</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F49" t="s">
+        <v>131</v>
+      </c>
+      <c r="G49" t="b">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>-90</v>
+      </c>
+      <c r="I49">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C50" t="s">
         <v>159</v>
       </c>
-      <c r="E49" s="10" t="s">
+      <c r="E50" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F50" t="s">
         <v>122</v>
       </c>
-      <c r="G49" t="b">
+      <c r="G50" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="10" t="s">
+    <row r="51" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="10" t="s">
         <v>148</v>
-      </c>
-      <c r="B50" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="D50" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="F50" s="10" t="s">
-        <v>1056</v>
-      </c>
-      <c r="G50" s="10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>150</v>
       </c>
       <c r="B51" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="C51" t="s">
-        <v>151</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="F51" t="s">
-        <v>122</v>
-      </c>
-      <c r="G51" t="b">
+      <c r="C51" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>1056</v>
+      </c>
+      <c r="G51" s="10" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B52" s="10" t="s">
         <v>141</v>
       </c>
       <c r="C52" t="s">
-        <v>147</v>
+        <v>151</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>183</v>
       </c>
       <c r="F52" t="s">
         <v>122</v>
@@ -4974,131 +4983,122 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B53" s="10" t="s">
         <v>141</v>
       </c>
       <c r="C53" t="s">
-        <v>142</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>184</v>
+        <v>147</v>
       </c>
       <c r="F53" t="s">
-        <v>1056</v>
+        <v>122</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
       </c>
-      <c r="H53">
-        <v>0</v>
-      </c>
-      <c r="I53">
-        <v>99999</v>
-      </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="10" t="s">
-        <v>143</v>
+      <c r="A54" t="s">
+        <v>141</v>
       </c>
       <c r="B54" s="10" t="s">
         <v>141</v>
       </c>
       <c r="C54" t="s">
-        <v>144</v>
-      </c>
-      <c r="E54" s="10" t="s">
-        <v>145</v>
+        <v>142</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>184</v>
       </c>
       <c r="F54" t="s">
-        <v>122</v>
+        <v>1056</v>
       </c>
       <c r="G54" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>99999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="B55" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="C55" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="D55" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="F55" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="G55" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H55" s="10">
-        <v>0</v>
-      </c>
-      <c r="I55" s="10">
-        <v>99999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>1068</v>
+      <c r="C55" t="s">
+        <v>144</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="F55" t="s">
+        <v>122</v>
+      </c>
+      <c r="G55" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="10" t="s">
+        <v>155</v>
       </c>
       <c r="B56" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="C56" t="s">
-        <v>1069</v>
-      </c>
-      <c r="E56" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="F56" t="s">
-        <v>122</v>
+      <c r="C56" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="F56" s="10" t="s">
+        <v>131</v>
       </c>
       <c r="G56" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H56" s="10">
+        <v>0</v>
+      </c>
+      <c r="I56" s="10">
+        <v>99999</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>114</v>
+        <v>1068</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>1108</v>
+        <v>141</v>
       </c>
       <c r="C57" t="s">
-        <v>1070</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="F57" s="10" t="s">
-        <v>1056</v>
+        <v>1069</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="F57" t="s">
+        <v>122</v>
       </c>
       <c r="G57" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H57">
         <v>1</v>
-      </c>
-      <c r="I57">
-        <v>360</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B58" s="10" t="s">
         <v>1108</v>
       </c>
       <c r="C58" t="s">
-        <v>139</v>
+        <v>1070</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>183</v>
@@ -5118,13 +5118,13 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B59" s="10" t="s">
         <v>1108</v>
       </c>
       <c r="C59" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>183</v>
@@ -5144,16 +5144,16 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="B60" s="10" t="s">
         <v>1108</v>
       </c>
       <c r="C60" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>1067</v>
+        <v>183</v>
       </c>
       <c r="F60" s="10" t="s">
         <v>1056</v>
@@ -5162,81 +5162,107 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60">
-        <v>100</v>
+        <v>360</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B61" s="10" t="s">
         <v>1108</v>
       </c>
-      <c r="C61" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="E61" s="10" t="s">
-        <v>138</v>
+      <c r="C61" t="s">
+        <v>133</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>1067</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>122</v>
+        <v>1056</v>
       </c>
       <c r="G61" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>100</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B62" s="10" t="s">
         <v>1108</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="F62" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G62" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>134</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C63" t="s">
         <v>135</v>
       </c>
-      <c r="D62" s="4" t="s">
+      <c r="D63" s="4" t="s">
         <v>1067</v>
       </c>
-      <c r="F62" s="10" t="s">
+      <c r="F63" s="10" t="s">
         <v>1056</v>
-      </c>
-      <c r="G62" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H62">
-        <v>0</v>
-      </c>
-      <c r="I62">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="B63" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="D63" s="10"/>
-      <c r="F63" s="10" t="s">
-        <v>122</v>
       </c>
       <c r="G63" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="H63" s="10"/>
-      <c r="I63" s="10"/>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="D64" s="10"/>
+      <c r="F64" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G64" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H64" s="10"/>
+      <c r="I64" s="10"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I63">
-    <sortCondition ref="B1:B63"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I64">
+    <sortCondition ref="B1:B64"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-raw/metar_config.xlsx
+++ b/data-raw/metar_config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mat\Documents\R\metar\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46BE9786-FD14-4914-B5E1-C0D07DFCC374}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D33AFF7-B554-4D38-8A66-9567031F36B6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" tabRatio="731" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9769,7 +9769,7 @@
   <dimension ref="A1:J54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H47" sqref="H47"/>
+      <selection activeCell="F8" sqref="F8:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data-raw/metar_config.xlsx
+++ b/data-raw/metar_config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mat\Documents\R\metar\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D33AFF7-B554-4D38-8A66-9567031F36B6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CAD6879-7D25-43B2-80DC-3A58EB9101F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" tabRatio="731" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" tabRatio="731" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PARA" sheetId="4" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1580" uniqueCount="1170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1588" uniqueCount="1173">
   <si>
     <t>FG</t>
   </si>
@@ -3553,6 +3553,15 @@
   </si>
   <si>
     <t>Runway Condition</t>
+  </si>
+  <si>
+    <t>Drifting/Blowing</t>
+  </si>
+  <si>
+    <t>lightgreen</t>
+  </si>
+  <si>
+    <t>VC TS</t>
   </si>
 </sst>
 </file>
@@ -3574,12 +3583,24 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -3594,7 +3615,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3602,10 +3623,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3888,17 +3913,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2900C6E8-A8B5-4407-A7A1-C33011B0ABA6}">
   <dimension ref="A1:I64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" style="8" customWidth="1"/>
     <col min="3" max="3" width="33.42578125" customWidth="1"/>
     <col min="4" max="4" width="23.140625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" style="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4.7109375" bestFit="1" customWidth="1"/>
@@ -3909,7 +3934,7 @@
       <c r="A1" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="8" t="s">
         <v>1107</v>
       </c>
       <c r="C1" t="s">
@@ -3918,7 +3943,7 @@
       <c r="D1" s="4" t="s">
         <v>1071</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="8" t="s">
         <v>1082</v>
       </c>
       <c r="F1" t="s">
@@ -3938,7 +3963,7 @@
       <c r="A2" t="s">
         <v>152</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="8" t="s">
         <v>152</v>
       </c>
       <c r="C2" t="s">
@@ -3955,7 +3980,7 @@
       <c r="A3" t="s">
         <v>194</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>152</v>
       </c>
       <c r="C3" t="s">
@@ -3968,173 +3993,173 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+    <row r="4" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>1086</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="8" t="s">
         <v>1087</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="8" t="s">
         <v>1056</v>
       </c>
-      <c r="G4" s="10" t="b">
+      <c r="G4" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="8">
         <v>0</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="8">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>1157</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="8" t="s">
         <v>1088</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="8" t="s">
         <v>1089</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="8" t="s">
         <v>1056</v>
       </c>
-      <c r="G5" s="10" t="b">
+      <c r="G5" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="8">
         <v>0</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="8">
         <v>99999</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+    <row r="6" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
         <v>1159</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="8" t="s">
         <v>1158</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="8" t="s">
         <v>1089</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="8" t="s">
         <v>1056</v>
       </c>
-      <c r="G6" s="10" t="b">
+      <c r="G6" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="8">
         <v>0</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="8">
         <v>99999</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+    <row r="7" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
         <v>1160</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="8" t="s">
         <v>1161</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="8" t="s">
         <v>1089</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="8" t="s">
         <v>1056</v>
       </c>
-      <c r="G7" s="10" t="b">
+      <c r="G7" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="8">
         <v>0</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="8">
         <v>99999</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+    <row r="8" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>1083</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="8" t="s">
         <v>1084</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="G8" s="10" t="b">
+      <c r="G8" s="8" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+    <row r="9" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>1162</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="8" t="s">
         <v>1163</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="G9" s="10" t="b">
+      <c r="G9" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="8">
         <v>0</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="8">
         <v>99999</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+    <row r="10" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="G10" s="10" t="b">
+      <c r="G10" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4142,7 +4167,7 @@
       <c r="A11" t="s">
         <v>123</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="8" t="s">
         <v>120</v>
       </c>
       <c r="C11" t="s">
@@ -4159,70 +4184,70 @@
       <c r="A12" t="s">
         <v>120</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="8" t="s">
         <v>120</v>
       </c>
       <c r="C12" t="s">
         <v>121</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="8" t="s">
         <v>122</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>173</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="8" t="s">
         <v>120</v>
       </c>
       <c r="C13" t="s">
         <v>174</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="8" t="s">
         <v>122</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
       </c>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>179</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="8" t="s">
         <v>120</v>
       </c>
       <c r="C14" t="s">
         <v>180</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="8" t="s">
         <v>122</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>126</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="8" t="s">
         <v>120</v>
       </c>
       <c r="C15" t="s">
         <v>127</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="8" t="s">
         <v>128</v>
       </c>
       <c r="G15" t="b">
@@ -4233,7 +4258,7 @@
       <c r="A16" t="s">
         <v>157</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="8" t="s">
         <v>120</v>
       </c>
       <c r="C16" t="s">
@@ -4250,7 +4275,7 @@
       <c r="A17" t="s">
         <v>1064</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="8" t="s">
         <v>1121</v>
       </c>
       <c r="C17" t="s">
@@ -4259,7 +4284,7 @@
       <c r="D17" s="4" t="s">
         <v>1066</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="8" t="s">
         <v>1056</v>
       </c>
       <c r="G17" t="b">
@@ -4276,7 +4301,7 @@
       <c r="A18" t="s">
         <v>1090</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="8" t="s">
         <v>154</v>
       </c>
       <c r="C18" t="s">
@@ -4295,37 +4320,37 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+    <row r="19" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
         <v>1092</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="8" t="s">
         <v>1091</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="G19" s="10" t="b">
+      <c r="G19" s="8" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
+    <row r="20" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="G20" s="10" t="b">
+      <c r="G20" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4333,7 +4358,7 @@
       <c r="A21" t="s">
         <v>1117</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="8" t="s">
         <v>154</v>
       </c>
       <c r="C21" t="s">
@@ -4350,7 +4375,7 @@
       <c r="A22" t="s">
         <v>169</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="8" t="s">
         <v>169</v>
       </c>
       <c r="C22" t="s">
@@ -4359,7 +4384,7 @@
       <c r="D22" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="F22" s="8" t="s">
         <v>1056</v>
       </c>
       <c r="G22" t="b">
@@ -4376,13 +4401,13 @@
       <c r="A23" t="s">
         <v>166</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="8" t="s">
         <v>169</v>
       </c>
       <c r="C23" t="s">
         <v>167</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="E23" s="8" t="s">
         <v>168</v>
       </c>
       <c r="F23" t="s">
@@ -4396,7 +4421,7 @@
       <c r="A24" t="s">
         <v>153</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="8" t="s">
         <v>153</v>
       </c>
       <c r="C24" t="s">
@@ -4413,7 +4438,7 @@
       <c r="A25" t="s">
         <v>1053</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="8" t="s">
         <v>153</v>
       </c>
       <c r="C25" t="s">
@@ -4439,13 +4464,13 @@
       <c r="A26" t="s">
         <v>1060</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="8" t="s">
         <v>153</v>
       </c>
       <c r="C26" t="s">
         <v>1062</v>
       </c>
-      <c r="F26" s="10" t="s">
+      <c r="F26" s="8" t="s">
         <v>1063</v>
       </c>
       <c r="G26" t="b">
@@ -4456,7 +4481,7 @@
       <c r="A27" t="s">
         <v>1050</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="8" t="s">
         <v>153</v>
       </c>
       <c r="C27" t="s">
@@ -4482,7 +4507,7 @@
       <c r="A28" t="s">
         <v>1059</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="8" t="s">
         <v>153</v>
       </c>
       <c r="C28" t="s">
@@ -4499,7 +4524,7 @@
       <c r="A29" t="s">
         <v>1054</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="8" t="s">
         <v>153</v>
       </c>
       <c r="C29" t="s">
@@ -4508,7 +4533,7 @@
       <c r="F29" t="s">
         <v>122</v>
       </c>
-      <c r="G29" s="10" t="b">
+      <c r="G29" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4516,13 +4541,13 @@
       <c r="A30" t="s">
         <v>1048</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="8" t="s">
         <v>153</v>
       </c>
       <c r="C30" t="s">
         <v>1049</v>
       </c>
-      <c r="E30" s="10" t="s">
+      <c r="E30" s="8" t="s">
         <v>145</v>
       </c>
       <c r="F30" t="s">
@@ -4532,218 +4557,218 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
+    <row r="31" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
         <v>1058</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="8" t="s">
         <v>1047</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D31" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="F31" s="10" t="s">
+      <c r="F31" s="8" t="s">
         <v>1056</v>
       </c>
-      <c r="G31" s="10" t="b">
+      <c r="G31" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="H31" s="10">
+      <c r="H31" s="8">
         <v>0</v>
       </c>
-      <c r="I31" s="10">
+      <c r="I31" s="8">
         <v>9999</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="10" t="s">
+    <row r="32" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
         <v>1043</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="8" t="s">
         <v>1044</v>
       </c>
-      <c r="F32" s="10" t="s">
+      <c r="F32" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="G32" s="10" t="b">
+      <c r="G32" s="8" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
+    <row r="33" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
         <v>1045</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="8" t="s">
         <v>1046</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D33" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="F33" s="10" t="s">
+      <c r="F33" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="G33" s="10" t="b">
+      <c r="G33" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="H33" s="10">
+      <c r="H33" s="8">
         <v>0</v>
       </c>
-      <c r="I33" s="10">
+      <c r="I33" s="8">
         <v>360</v>
       </c>
     </row>
-    <row r="34" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="10" t="s">
+    <row r="34" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
         <v>1168</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="8" t="s">
         <v>1168</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="8" t="s">
         <v>1169</v>
       </c>
-      <c r="F34" s="10" t="s">
+      <c r="F34" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="G34" s="10" t="b">
+      <c r="G34" s="8" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="10" t="s">
+    <row r="35" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="8" t="s">
         <v>1111</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="8" t="s">
         <v>1105</v>
       </c>
-      <c r="F35" s="10" t="s">
+      <c r="F35" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="G35" s="10" t="b">
+      <c r="G35" s="8" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="10" t="s">
+    <row r="36" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
         <v>1102</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="8" t="s">
         <v>1111</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="8" t="s">
         <v>1104</v>
       </c>
-      <c r="F36" s="10" t="s">
+      <c r="F36" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="G36" s="10" t="b">
+      <c r="G36" s="8" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="10" t="s">
+    <row r="37" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
         <v>1103</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="8" t="s">
         <v>1111</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C37" s="8" t="s">
         <v>1104</v>
       </c>
-      <c r="F37" s="10" t="s">
+      <c r="F37" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="G37" s="10" t="b">
+      <c r="G37" s="8" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="10" t="s">
+    <row r="38" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
         <v>1096</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="8" t="s">
         <v>1111</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C38" s="8" t="s">
         <v>1094</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="D38" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="F38" s="10" t="s">
+      <c r="F38" s="8" t="s">
         <v>1056</v>
       </c>
-      <c r="G38" s="10" t="b">
+      <c r="G38" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="H38" s="10">
+      <c r="H38" s="8">
         <v>-180</v>
       </c>
-      <c r="I38" s="10">
+      <c r="I38" s="8">
         <v>180</v>
       </c>
     </row>
-    <row r="39" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="10" t="s">
+    <row r="39" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
         <v>1097</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="8" t="s">
         <v>1111</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C39" s="8" t="s">
         <v>1095</v>
       </c>
-      <c r="D39" s="10" t="s">
+      <c r="D39" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="F39" s="10" t="s">
+      <c r="F39" s="8" t="s">
         <v>1056</v>
       </c>
-      <c r="G39" s="10" t="b">
+      <c r="G39" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="H39" s="10">
+      <c r="H39" s="8">
         <v>-90</v>
       </c>
-      <c r="I39" s="10">
+      <c r="I39" s="8">
         <v>90</v>
       </c>
     </row>
-    <row r="40" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="10" t="s">
+    <row r="40" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
         <v>1098</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="8" t="s">
         <v>1111</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="8" t="s">
         <v>1099</v>
       </c>
-      <c r="D40" s="10" t="s">
+      <c r="D40" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="F40" s="10" t="s">
+      <c r="F40" s="8" t="s">
         <v>1056</v>
       </c>
-      <c r="G40" s="10" t="b">
+      <c r="G40" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="H40" s="10">
+      <c r="H40" s="8">
         <v>-999</v>
       </c>
-      <c r="I40" s="10">
+      <c r="I40" s="8">
         <v>9999</v>
       </c>
     </row>
@@ -4751,7 +4776,7 @@
       <c r="A41" t="s">
         <v>1100</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="8" t="s">
         <v>1111</v>
       </c>
       <c r="C41" t="s">
@@ -4768,7 +4793,7 @@
       <c r="A42" t="s">
         <v>1106</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="8" t="s">
         <v>1111</v>
       </c>
       <c r="C42" t="s">
@@ -4785,7 +4810,7 @@
       <c r="A43" t="s">
         <v>1113</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="8" t="s">
         <v>1111</v>
       </c>
       <c r="C43" t="s">
@@ -4802,7 +4827,7 @@
       <c r="A44" t="s">
         <v>1115</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="8" t="s">
         <v>1111</v>
       </c>
       <c r="C44" t="s">
@@ -4819,7 +4844,7 @@
       <c r="A45" t="s">
         <v>175</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="8" t="s">
         <v>1110</v>
       </c>
       <c r="C45" t="s">
@@ -4836,7 +4861,7 @@
       <c r="A46" t="s">
         <v>177</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="8" t="s">
         <v>1110</v>
       </c>
       <c r="C46" t="s">
@@ -4853,7 +4878,7 @@
       <c r="A47" t="s">
         <v>164</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="8" t="s">
         <v>161</v>
       </c>
       <c r="C47" t="s">
@@ -4879,13 +4904,13 @@
       <c r="A48" t="s">
         <v>1081</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="8" t="s">
         <v>161</v>
       </c>
       <c r="C48" t="s">
         <v>163</v>
       </c>
-      <c r="E48" s="10" t="s">
+      <c r="E48" s="8" t="s">
         <v>160</v>
       </c>
       <c r="F48" t="s">
@@ -4899,7 +4924,7 @@
       <c r="A49" t="s">
         <v>161</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="8" t="s">
         <v>161</v>
       </c>
       <c r="C49" t="s">
@@ -4925,13 +4950,13 @@
       <c r="A50" t="s">
         <v>1080</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="8" t="s">
         <v>161</v>
       </c>
       <c r="C50" t="s">
         <v>159</v>
       </c>
-      <c r="E50" s="10" t="s">
+      <c r="E50" s="8" t="s">
         <v>160</v>
       </c>
       <c r="F50" t="s">
@@ -4941,23 +4966,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="10" t="s">
+    <row r="51" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="B51" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C51" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="D51" s="10" t="s">
+      <c r="D51" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="F51" s="10" t="s">
+      <c r="F51" s="8" t="s">
         <v>1056</v>
       </c>
-      <c r="G51" s="10" t="b">
+      <c r="G51" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4965,7 +4990,7 @@
       <c r="A52" t="s">
         <v>150</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="8" t="s">
         <v>141</v>
       </c>
       <c r="C52" t="s">
@@ -4985,7 +5010,7 @@
       <c r="A53" t="s">
         <v>146</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="B53" s="8" t="s">
         <v>141</v>
       </c>
       <c r="C53" t="s">
@@ -5002,7 +5027,7 @@
       <c r="A54" t="s">
         <v>141</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="B54" s="8" t="s">
         <v>141</v>
       </c>
       <c r="C54" t="s">
@@ -5025,16 +5050,16 @@
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="10" t="s">
+      <c r="A55" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="B55" s="10" t="s">
+      <c r="B55" s="8" t="s">
         <v>141</v>
       </c>
       <c r="C55" t="s">
         <v>144</v>
       </c>
-      <c r="E55" s="10" t="s">
+      <c r="E55" s="8" t="s">
         <v>145</v>
       </c>
       <c r="F55" t="s">
@@ -5044,29 +5069,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="10" t="s">
+    <row r="56" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="B56" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="C56" s="10" t="s">
+      <c r="C56" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="D56" s="10" t="s">
+      <c r="D56" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="F56" s="10" t="s">
+      <c r="F56" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="G56" s="10" t="b">
+      <c r="G56" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="H56" s="10">
+      <c r="H56" s="8">
         <v>0</v>
       </c>
-      <c r="I56" s="10">
+      <c r="I56" s="8">
         <v>99999</v>
       </c>
     </row>
@@ -5074,19 +5099,19 @@
       <c r="A57" t="s">
         <v>1068</v>
       </c>
-      <c r="B57" s="10" t="s">
+      <c r="B57" s="8" t="s">
         <v>141</v>
       </c>
       <c r="C57" t="s">
         <v>1069</v>
       </c>
-      <c r="E57" s="10" t="s">
+      <c r="E57" s="8" t="s">
         <v>145</v>
       </c>
       <c r="F57" t="s">
         <v>122</v>
       </c>
-      <c r="G57" s="10" t="b">
+      <c r="G57" s="8" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5094,7 +5119,7 @@
       <c r="A58" t="s">
         <v>114</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="B58" s="8" t="s">
         <v>1108</v>
       </c>
       <c r="C58" t="s">
@@ -5103,10 +5128,10 @@
       <c r="D58" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="F58" s="10" t="s">
+      <c r="F58" s="8" t="s">
         <v>1056</v>
       </c>
-      <c r="G58" s="10" t="b">
+      <c r="G58" s="8" t="b">
         <v>0</v>
       </c>
       <c r="H58">
@@ -5120,7 +5145,7 @@
       <c r="A59" t="s">
         <v>112</v>
       </c>
-      <c r="B59" s="10" t="s">
+      <c r="B59" s="8" t="s">
         <v>1108</v>
       </c>
       <c r="C59" t="s">
@@ -5129,10 +5154,10 @@
       <c r="D59" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="F59" s="10" t="s">
+      <c r="F59" s="8" t="s">
         <v>1056</v>
       </c>
-      <c r="G59" s="10" t="b">
+      <c r="G59" s="8" t="b">
         <v>0</v>
       </c>
       <c r="H59">
@@ -5146,7 +5171,7 @@
       <c r="A60" t="s">
         <v>113</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="B60" s="8" t="s">
         <v>1108</v>
       </c>
       <c r="C60" t="s">
@@ -5155,10 +5180,10 @@
       <c r="D60" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="F60" s="10" t="s">
+      <c r="F60" s="8" t="s">
         <v>1056</v>
       </c>
-      <c r="G60" s="10" t="b">
+      <c r="G60" s="8" t="b">
         <v>0</v>
       </c>
       <c r="H60">
@@ -5172,7 +5197,7 @@
       <c r="A61" t="s">
         <v>132</v>
       </c>
-      <c r="B61" s="10" t="s">
+      <c r="B61" s="8" t="s">
         <v>1108</v>
       </c>
       <c r="C61" t="s">
@@ -5181,10 +5206,10 @@
       <c r="D61" s="4" t="s">
         <v>1067</v>
       </c>
-      <c r="F61" s="10" t="s">
+      <c r="F61" s="8" t="s">
         <v>1056</v>
       </c>
-      <c r="G61" s="10" t="b">
+      <c r="G61" s="8" t="b">
         <v>0</v>
       </c>
       <c r="H61">
@@ -5198,19 +5223,19 @@
       <c r="A62" t="s">
         <v>136</v>
       </c>
-      <c r="B62" s="10" t="s">
+      <c r="B62" s="8" t="s">
         <v>1108</v>
       </c>
-      <c r="C62" s="10" t="s">
+      <c r="C62" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="E62" s="10" t="s">
+      <c r="E62" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="F62" s="10" t="s">
+      <c r="F62" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="G62" s="10" t="b">
+      <c r="G62" s="8" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5218,7 +5243,7 @@
       <c r="A63" t="s">
         <v>134</v>
       </c>
-      <c r="B63" s="10" t="s">
+      <c r="B63" s="8" t="s">
         <v>1108</v>
       </c>
       <c r="C63" t="s">
@@ -5227,10 +5252,10 @@
       <c r="D63" s="4" t="s">
         <v>1067</v>
       </c>
-      <c r="F63" s="10" t="s">
+      <c r="F63" s="8" t="s">
         <v>1056</v>
       </c>
-      <c r="G63" s="10" t="b">
+      <c r="G63" s="8" t="b">
         <v>0</v>
       </c>
       <c r="H63">
@@ -5241,24 +5266,24 @@
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="10" t="s">
+      <c r="A64" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="B64" s="10" t="s">
+      <c r="B64" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="C64" s="10" t="s">
+      <c r="C64" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="D64" s="10"/>
-      <c r="F64" s="10" t="s">
+      <c r="D64" s="8"/>
+      <c r="F64" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="G64" s="10" t="b">
+      <c r="G64" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="H64" s="10"/>
-      <c r="I64" s="10"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="8"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I64">
@@ -5272,22 +5297,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AB3F69E-B179-4C43-80DD-D8065CE98EE1}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="10"/>
-    <col min="2" max="2" width="32.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="8"/>
+    <col min="2" max="2" width="32.5703125" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="212.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>1025</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="8" t="s">
         <v>1027</v>
       </c>
       <c r="C1" t="s">
@@ -5295,10 +5320,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="10">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="8" t="s">
         <v>1028</v>
       </c>
       <c r="C2" t="s">
@@ -5306,10 +5331,10 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>180</v>
       </c>
       <c r="C3" t="s">
@@ -5317,10 +5342,10 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
+      <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="8" t="s">
         <v>1029</v>
       </c>
       <c r="C4" t="s">
@@ -5328,10 +5353,10 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="8" t="s">
         <v>1030</v>
       </c>
       <c r="C5" t="s">
@@ -5339,10 +5364,10 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
+      <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="8" t="s">
         <v>1031</v>
       </c>
       <c r="C6" t="s">
@@ -5350,10 +5375,10 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
+      <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="8" t="s">
         <v>1032</v>
       </c>
       <c r="C7" t="s">
@@ -5361,10 +5386,10 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
+      <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="8" t="s">
         <v>1032</v>
       </c>
       <c r="C8" t="s">
@@ -5372,10 +5397,10 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
+      <c r="A9" s="8">
         <v>8</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="8" t="s">
         <v>1033</v>
       </c>
       <c r="C9" t="s">
@@ -5383,10 +5408,10 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
+      <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="8" t="s">
         <v>1034</v>
       </c>
       <c r="C10" t="s">
@@ -5394,10 +5419,10 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
+      <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="8" t="s">
         <v>1034</v>
       </c>
       <c r="C11" t="s">
@@ -5405,10 +5430,10 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
+      <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="8" t="s">
         <v>1035</v>
       </c>
       <c r="C12" t="s">
@@ -5416,10 +5441,10 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="10">
+      <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="8" t="s">
         <v>1036</v>
       </c>
       <c r="C13" t="s">
@@ -5427,10 +5452,10 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="10">
+      <c r="A14" s="8">
         <v>13</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="8" t="s">
         <v>1037</v>
       </c>
       <c r="C14" t="s">
@@ -5438,10 +5463,10 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="10">
+      <c r="A15" s="8">
         <v>14</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="8" t="s">
         <v>1123</v>
       </c>
       <c r="C15" t="s">
@@ -5449,10 +5474,10 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="10">
+      <c r="A16" s="8">
         <v>15</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="8" t="s">
         <v>1038</v>
       </c>
       <c r="C16" t="s">
@@ -5460,10 +5485,10 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="10">
+      <c r="A17" s="8">
         <v>16</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="8" t="s">
         <v>1039</v>
       </c>
       <c r="C17" t="s">
@@ -5471,10 +5496,10 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="10">
+      <c r="A18" s="8">
         <v>17</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="8" t="s">
         <v>1042</v>
       </c>
       <c r="C18" t="s">
@@ -5482,10 +5507,10 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="10">
+      <c r="A19" s="8">
         <v>18</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="8" t="s">
         <v>1040</v>
       </c>
       <c r="C19" t="s">
@@ -5493,10 +5518,10 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="10">
+      <c r="A20" s="8">
         <v>19</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="8" t="s">
         <v>174</v>
       </c>
       <c r="C20" t="s">
@@ -5504,10 +5529,10 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="10">
+      <c r="A21" s="8">
         <v>20</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="8" t="s">
         <v>219</v>
       </c>
       <c r="C21" t="s">
@@ -5515,10 +5540,10 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="10">
+      <c r="A22" s="8">
         <v>21</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="8" t="s">
         <v>1041</v>
       </c>
       <c r="C22" t="s">
@@ -5526,21 +5551,21 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="10">
+      <c r="A23" s="8">
         <v>22</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="8" t="s">
         <v>1124</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="8" t="s">
         <v>1125</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="10">
+      <c r="A24" s="8">
         <v>23</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="8" t="s">
         <v>1165</v>
       </c>
       <c r="C24" t="s">
@@ -5548,10 +5573,10 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="10">
+      <c r="A25" s="8">
         <v>24</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="8" t="s">
         <v>1167</v>
       </c>
       <c r="C25" t="s">
@@ -5574,7 +5599,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="6.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
   </cols>
@@ -5586,10 +5611,10 @@
       <c r="B1" t="s">
         <v>182</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="8" t="s">
         <v>1071</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="8" t="s">
         <v>1078</v>
       </c>
       <c r="E1" t="s">
@@ -5609,7 +5634,7 @@
       <c r="C2" t="s">
         <v>1074</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="8" t="s">
         <v>138</v>
       </c>
       <c r="E2">
@@ -5623,13 +5648,13 @@
       <c r="A3" t="s">
         <v>132</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>136</v>
       </c>
       <c r="C3" t="s">
         <v>138</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="8" t="s">
         <v>138</v>
       </c>
       <c r="E3">
@@ -5639,23 +5664,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+    <row r="4" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="8" t="s">
         <v>1077</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="8">
         <v>0</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="8">
         <v>0.86897599999999997</v>
       </c>
     </row>
@@ -5669,10 +5694,10 @@
       <c r="C5" t="s">
         <v>1075</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="8">
         <v>0</v>
       </c>
       <c r="F5">
@@ -5680,19 +5705,19 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="8" t="s">
         <v>143</v>
       </c>
       <c r="C6" t="s">
         <v>1076</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="8">
         <v>0</v>
       </c>
       <c r="F6">
@@ -5700,16 +5725,16 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="8" t="s">
         <v>143</v>
       </c>
       <c r="C7" t="s">
         <v>145</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="8" t="s">
         <v>145</v>
       </c>
       <c r="E7">
@@ -5729,7 +5754,7 @@
       <c r="C8" t="s">
         <v>168</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="8" t="s">
         <v>168</v>
       </c>
       <c r="E8">
@@ -5740,16 +5765,16 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="8" t="s">
         <v>166</v>
       </c>
       <c r="C9" t="s">
         <v>1079</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="8" t="s">
         <v>168</v>
       </c>
       <c r="E9">
@@ -5769,7 +5794,7 @@
       <c r="C10" t="s">
         <v>145</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="8" t="s">
         <v>160</v>
       </c>
       <c r="E10">
@@ -5780,16 +5805,16 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="8" t="s">
         <v>1080</v>
       </c>
       <c r="C11" t="s">
         <v>160</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="8" t="s">
         <v>160</v>
       </c>
       <c r="E11">
@@ -5800,42 +5825,42 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="8" t="s">
         <v>1081</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="8">
         <v>0</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="8">
         <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="8" t="s">
         <v>1081</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="8">
         <v>0</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="8">
         <v>1</v>
       </c>
     </row>
@@ -5849,7 +5874,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="A13" sqref="A13:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6149,7 +6174,7 @@
       <c r="B21" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="8" t="s">
         <v>1119</v>
       </c>
       <c r="D21" s="2" t="s">
@@ -6163,7 +6188,7 @@
       <c r="B22" t="s">
         <v>1120</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="8" t="s">
         <v>1119</v>
       </c>
       <c r="D22" t="s">
@@ -6180,7 +6205,7 @@
       <c r="C23" t="s">
         <v>73</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="8" t="s">
         <v>87</v>
       </c>
       <c r="E23" t="s">
@@ -6197,7 +6222,7 @@
       <c r="C24" t="s">
         <v>73</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="8" t="s">
         <v>87</v>
       </c>
       <c r="E24" t="s">
@@ -6363,10 +6388,10 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="8" t="s">
         <v>1119</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="8" t="s">
         <v>1120</v>
       </c>
     </row>
@@ -6398,3218 +6423,3218 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="8" t="s">
         <v>614</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>615</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="8" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="8" t="s">
         <v>617</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="8" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="8" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="8" t="s">
         <v>620</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="8" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="8" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="8" t="s">
         <v>623</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="8" t="s">
         <v>624</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="8" t="s">
         <v>625</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="8" t="s">
         <v>626</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="8" t="s">
         <v>627</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="8" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="8" t="s">
         <v>629</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="8" t="s">
         <v>630</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="8" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="8" t="s">
         <v>632</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="8" t="s">
         <v>633</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="8" t="s">
         <v>634</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="8" t="s">
         <v>635</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="8" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="8" t="s">
         <v>637</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="8" t="s">
         <v>638</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="8" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="8" t="s">
         <v>640</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="8" t="s">
         <v>641</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="8" t="s">
         <v>642</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="8" t="s">
         <v>643</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="8" t="s">
         <v>644</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="8" t="s">
         <v>645</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="8" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="8" t="s">
         <v>647</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="8" t="s">
         <v>648</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="8" t="s">
         <v>649</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="9" t="s">
+      <c r="A39" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="8" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="9" t="s">
+      <c r="A40" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="8" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="9" t="s">
+      <c r="A41" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="8" t="s">
         <v>652</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="8" t="s">
         <v>653</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="9" t="s">
+      <c r="A43" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="8" t="s">
         <v>654</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="9" t="s">
+      <c r="A44" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="8" t="s">
         <v>655</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="9" t="s">
+      <c r="A45" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="8" t="s">
         <v>656</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="9" t="s">
+      <c r="A46" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="8" t="s">
         <v>657</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="9" t="s">
+      <c r="A47" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="8" t="s">
         <v>658</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="9" t="s">
+      <c r="A48" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="8" t="s">
         <v>659</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="9" t="s">
+      <c r="A49" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="8" t="s">
         <v>660</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="9" t="s">
+      <c r="A50" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="8" t="s">
         <v>661</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="9" t="s">
+      <c r="A51" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="B51" s="8" t="s">
         <v>662</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="9" t="s">
+      <c r="A52" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="8" t="s">
         <v>663</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="9" t="s">
+      <c r="A53" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="B53" s="8" t="s">
         <v>664</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="9" t="s">
+      <c r="A54" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="B54" s="8" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="9" t="s">
+      <c r="A55" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="B55" s="10" t="s">
+      <c r="B55" s="8" t="s">
         <v>666</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="9" t="s">
+      <c r="A56" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="B56" s="8" t="s">
         <v>667</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="9" t="s">
+      <c r="A57" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="B57" s="10" t="s">
+      <c r="B57" s="8" t="s">
         <v>668</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="9" t="s">
+      <c r="A58" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="B58" s="8" t="s">
         <v>669</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="9" t="s">
+      <c r="A59" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="B59" s="10" t="s">
+      <c r="B59" s="8" t="s">
         <v>670</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="9" t="s">
+      <c r="A60" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="B60" s="8" t="s">
         <v>671</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="9" t="s">
+      <c r="A61" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="B61" s="10" t="s">
+      <c r="B61" s="8" t="s">
         <v>672</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="9" t="s">
+      <c r="A62" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="B62" s="10" t="s">
+      <c r="B62" s="8" t="s">
         <v>673</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="9" t="s">
+      <c r="A63" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="B63" s="10" t="s">
+      <c r="B63" s="8" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="9" t="s">
+      <c r="A64" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="B64" s="10" t="s">
+      <c r="B64" s="8" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="9" t="s">
+      <c r="A65" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="B65" s="10" t="s">
+      <c r="B65" s="8" t="s">
         <v>676</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="9" t="s">
+      <c r="A66" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="B66" s="10" t="s">
+      <c r="B66" s="8" t="s">
         <v>677</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="9" t="s">
+      <c r="A67" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="B67" s="10" t="s">
+      <c r="B67" s="8" t="s">
         <v>678</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="9" t="s">
+      <c r="A68" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="B68" s="10" t="s">
+      <c r="B68" s="8" t="s">
         <v>679</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="9" t="s">
+      <c r="A69" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="B69" s="10" t="s">
+      <c r="B69" s="8" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="9" t="s">
+      <c r="A70" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B70" s="10" t="s">
+      <c r="B70" s="8" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="9" t="s">
+      <c r="A71" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="B71" s="10" t="s">
+      <c r="B71" s="8" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="9" t="s">
+      <c r="A72" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B72" s="10" t="s">
+      <c r="B72" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="9" t="s">
+      <c r="A73" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B73" s="10" t="s">
+      <c r="B73" s="8" t="s">
         <v>682</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="9" t="s">
+      <c r="A74" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="B74" s="10" t="s">
+      <c r="B74" s="8" t="s">
         <v>683</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="9" t="s">
+      <c r="A75" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="B75" s="10" t="s">
+      <c r="B75" s="8" t="s">
         <v>684</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="9" t="s">
+      <c r="A76" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="B76" s="10" t="s">
+      <c r="B76" s="8" t="s">
         <v>685</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="9" t="s">
+      <c r="A77" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="B77" s="10" t="s">
+      <c r="B77" s="8" t="s">
         <v>686</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="9" t="s">
+      <c r="A78" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="B78" s="10" t="s">
+      <c r="B78" s="8" t="s">
         <v>687</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="9" t="s">
+      <c r="A79" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="B79" s="10" t="s">
+      <c r="B79" s="8" t="s">
         <v>688</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="9" t="s">
+      <c r="A80" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="B80" s="10" t="s">
+      <c r="B80" s="8" t="s">
         <v>689</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="9" t="s">
+      <c r="A81" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="B81" s="10" t="s">
+      <c r="B81" s="8" t="s">
         <v>690</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="9" t="s">
+      <c r="A82" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="B82" s="10" t="s">
+      <c r="B82" s="8" t="s">
         <v>691</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="9" t="s">
+      <c r="A83" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="B83" s="10" t="s">
+      <c r="B83" s="8" t="s">
         <v>692</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="9" t="s">
+      <c r="A84" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="B84" s="10" t="s">
+      <c r="B84" s="8" t="s">
         <v>693</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="9" t="s">
+      <c r="A85" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="B85" s="10" t="s">
+      <c r="B85" s="8" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="9" t="s">
+      <c r="A86" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="B86" s="10" t="s">
+      <c r="B86" s="8" t="s">
         <v>695</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="9" t="s">
+      <c r="A87" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="B87" s="10" t="s">
+      <c r="B87" s="8" t="s">
         <v>696</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="9" t="s">
+      <c r="A88" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="B88" s="10" t="s">
+      <c r="B88" s="8" t="s">
         <v>697</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="9" t="s">
+      <c r="A89" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="B89" s="10" t="s">
+      <c r="B89" s="8" t="s">
         <v>698</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="9" t="s">
+      <c r="A90" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="B90" s="10" t="s">
+      <c r="B90" s="8" t="s">
         <v>699</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="9" t="s">
+      <c r="A91" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="B91" s="10" t="s">
+      <c r="B91" s="8" t="s">
         <v>700</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="9" t="s">
+      <c r="A92" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="B92" s="10" t="s">
+      <c r="B92" s="8" t="s">
         <v>701</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="9" t="s">
+      <c r="A93" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="B93" s="10" t="s">
+      <c r="B93" s="8" t="s">
         <v>702</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="9" t="s">
+      <c r="A94" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="B94" s="10" t="s">
+      <c r="B94" s="8" t="s">
         <v>703</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="9" t="s">
+      <c r="A95" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="B95" s="10" t="s">
+      <c r="B95" s="8" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="9" t="s">
+      <c r="A96" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="B96" s="10" t="s">
+      <c r="B96" s="8" t="s">
         <v>705</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="9" t="s">
+      <c r="A97" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="B97" s="10" t="s">
+      <c r="B97" s="8" t="s">
         <v>706</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="9" t="s">
+      <c r="A98" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="B98" s="10" t="s">
+      <c r="B98" s="8" t="s">
         <v>707</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="9" t="s">
+      <c r="A99" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B99" s="10" t="s">
+      <c r="B99" s="8" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="9" t="s">
+      <c r="A100" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="B100" s="10" t="s">
+      <c r="B100" s="8" t="s">
         <v>709</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="9" t="s">
+      <c r="A101" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="B101" s="10" t="s">
+      <c r="B101" s="8" t="s">
         <v>710</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="9" t="s">
+      <c r="A102" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="B102" s="10" t="s">
+      <c r="B102" s="8" t="s">
         <v>711</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="9" t="s">
+      <c r="A103" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="B103" s="10" t="s">
+      <c r="B103" s="8" t="s">
         <v>712</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="9" t="s">
+      <c r="A104" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="B104" s="10" t="s">
+      <c r="B104" s="8" t="s">
         <v>713</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="9" t="s">
+      <c r="A105" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="B105" s="10" t="s">
+      <c r="B105" s="8" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="9" t="s">
+      <c r="A106" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="B106" s="10" t="s">
+      <c r="B106" s="8" t="s">
         <v>715</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="9" t="s">
+      <c r="A107" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="B107" s="10" t="s">
+      <c r="B107" s="8" t="s">
         <v>716</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="9" t="s">
+      <c r="A108" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="B108" s="10" t="s">
+      <c r="B108" s="8" t="s">
         <v>717</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="9" t="s">
+      <c r="A109" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="B109" s="10" t="s">
+      <c r="B109" s="8" t="s">
         <v>718</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="9" t="s">
+      <c r="A110" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="B110" s="10" t="s">
+      <c r="B110" s="8" t="s">
         <v>719</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="9" t="s">
+      <c r="A111" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="B111" s="10" t="s">
+      <c r="B111" s="8" t="s">
         <v>720</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="9" t="s">
+      <c r="A112" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="B112" s="10" t="s">
+      <c r="B112" s="8" t="s">
         <v>721</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="9" t="s">
+      <c r="A113" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="B113" s="10" t="s">
+      <c r="B113" s="8" t="s">
         <v>722</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="9" t="s">
+      <c r="A114" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="B114" s="10" t="s">
+      <c r="B114" s="8" t="s">
         <v>723</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="9" t="s">
+      <c r="A115" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="B115" s="10" t="s">
+      <c r="B115" s="8" t="s">
         <v>724</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="9" t="s">
+      <c r="A116" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="B116" s="10" t="s">
+      <c r="B116" s="8" t="s">
         <v>725</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="9" t="s">
+      <c r="A117" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="B117" s="10" t="s">
+      <c r="B117" s="8" t="s">
         <v>726</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" s="9" t="s">
+      <c r="A118" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="B118" s="10" t="s">
+      <c r="B118" s="8" t="s">
         <v>727</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="9" t="s">
+      <c r="A119" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="B119" s="10" t="s">
+      <c r="B119" s="8" t="s">
         <v>728</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="9" t="s">
+      <c r="A120" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="B120" s="10" t="s">
+      <c r="B120" s="8" t="s">
         <v>729</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="9" t="s">
+      <c r="A121" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="B121" s="10" t="s">
+      <c r="B121" s="8" t="s">
         <v>730</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="9" t="s">
+      <c r="A122" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="B122" s="10" t="s">
+      <c r="B122" s="8" t="s">
         <v>731</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="9" t="s">
+      <c r="A123" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="B123" s="10" t="s">
+      <c r="B123" s="8" t="s">
         <v>732</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="9" t="s">
+      <c r="A124" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="B124" s="10" t="s">
+      <c r="B124" s="8" t="s">
         <v>733</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" s="9" t="s">
+      <c r="A125" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="B125" s="10" t="s">
+      <c r="B125" s="8" t="s">
         <v>734</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" s="9" t="s">
+      <c r="A126" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="B126" s="10" t="s">
+      <c r="B126" s="8" t="s">
         <v>735</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="9" t="s">
+      <c r="A127" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="B127" s="10" t="s">
+      <c r="B127" s="8" t="s">
         <v>736</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="9" t="s">
+      <c r="A128" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="B128" s="10" t="s">
+      <c r="B128" s="8" t="s">
         <v>737</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="9" t="s">
+      <c r="A129" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="B129" s="10" t="s">
+      <c r="B129" s="8" t="s">
         <v>738</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" s="9" t="s">
+      <c r="A130" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="B130" s="10" t="s">
+      <c r="B130" s="8" t="s">
         <v>739</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="9" t="s">
+      <c r="A131" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="B131" s="10" t="s">
+      <c r="B131" s="8" t="s">
         <v>740</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" s="9" t="s">
+      <c r="A132" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="B132" s="10" t="s">
+      <c r="B132" s="8" t="s">
         <v>741</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" s="9" t="s">
+      <c r="A133" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="B133" s="10" t="s">
+      <c r="B133" s="8" t="s">
         <v>742</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" s="9" t="s">
+      <c r="A134" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="B134" s="10" t="s">
+      <c r="B134" s="8" t="s">
         <v>743</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" s="9" t="s">
+      <c r="A135" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="B135" s="10" t="s">
+      <c r="B135" s="8" t="s">
         <v>744</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" s="9" t="s">
+      <c r="A136" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="B136" s="10" t="s">
+      <c r="B136" s="8" t="s">
         <v>745</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" s="9" t="s">
+      <c r="A137" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="B137" s="10" t="s">
+      <c r="B137" s="8" t="s">
         <v>746</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" s="9" t="s">
+      <c r="A138" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="B138" s="10" t="s">
+      <c r="B138" s="8" t="s">
         <v>747</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" s="9" t="s">
+      <c r="A139" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="B139" s="10" t="s">
+      <c r="B139" s="8" t="s">
         <v>748</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="9" t="s">
+      <c r="A140" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="B140" s="10" t="s">
+      <c r="B140" s="8" t="s">
         <v>749</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" s="9" t="s">
+      <c r="A141" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="B141" s="10" t="s">
+      <c r="B141" s="8" t="s">
         <v>750</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" s="9" t="s">
+      <c r="A142" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="B142" s="10" t="s">
+      <c r="B142" s="8" t="s">
         <v>751</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" s="9" t="s">
+      <c r="A143" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="B143" s="10" t="s">
+      <c r="B143" s="8" t="s">
         <v>752</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" s="9" t="s">
+      <c r="A144" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="B144" s="10" t="s">
+      <c r="B144" s="8" t="s">
         <v>753</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" s="9" t="s">
+      <c r="A145" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="B145" s="10" t="s">
+      <c r="B145" s="8" t="s">
         <v>754</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" s="9" t="s">
+      <c r="A146" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="B146" s="10" t="s">
+      <c r="B146" s="8" t="s">
         <v>755</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" s="9" t="s">
+      <c r="A147" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="B147" s="10" t="s">
+      <c r="B147" s="8" t="s">
         <v>756</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" s="9" t="s">
+      <c r="A148" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="B148" s="10" t="s">
+      <c r="B148" s="8" t="s">
         <v>757</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" s="9" t="s">
+      <c r="A149" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="B149" s="10" t="s">
+      <c r="B149" s="8" t="s">
         <v>758</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" s="9" t="s">
+      <c r="A150" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="B150" s="10" t="s">
+      <c r="B150" s="8" t="s">
         <v>759</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" s="9" t="s">
+      <c r="A151" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="B151" s="10" t="s">
+      <c r="B151" s="8" t="s">
         <v>760</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" s="9" t="s">
+      <c r="A152" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="B152" s="10" t="s">
+      <c r="B152" s="8" t="s">
         <v>761</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" s="9" t="s">
+      <c r="A153" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="B153" s="10" t="s">
+      <c r="B153" s="8" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" s="9" t="s">
+      <c r="A154" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="B154" s="10" t="s">
+      <c r="B154" s="8" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" s="9" t="s">
+      <c r="A155" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="B155" s="10" t="s">
+      <c r="B155" s="8" t="s">
         <v>764</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" s="9" t="s">
+      <c r="A156" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="B156" s="10" t="s">
+      <c r="B156" s="8" t="s">
         <v>765</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" s="9" t="s">
+      <c r="A157" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="B157" s="10" t="s">
+      <c r="B157" s="8" t="s">
         <v>766</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" s="9" t="s">
+      <c r="A158" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="B158" s="10" t="s">
+      <c r="B158" s="8" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" s="9" t="s">
+      <c r="A159" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="B159" s="10" t="s">
+      <c r="B159" s="8" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" s="9" t="s">
+      <c r="A160" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="B160" s="10" t="s">
+      <c r="B160" s="8" t="s">
         <v>769</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" s="9" t="s">
+      <c r="A161" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="B161" s="10" t="s">
+      <c r="B161" s="8" t="s">
         <v>770</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" s="9" t="s">
+      <c r="A162" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="B162" s="10" t="s">
+      <c r="B162" s="8" t="s">
         <v>771</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" s="9" t="s">
+      <c r="A163" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="B163" s="10" t="s">
+      <c r="B163" s="8" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" s="9" t="s">
+      <c r="A164" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="B164" s="10" t="s">
+      <c r="B164" s="8" t="s">
         <v>773</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" s="9" t="s">
+      <c r="A165" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="B165" s="10" t="s">
+      <c r="B165" s="8" t="s">
         <v>774</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" s="9" t="s">
+      <c r="A166" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="B166" s="10" t="s">
+      <c r="B166" s="8" t="s">
         <v>775</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" s="9" t="s">
+      <c r="A167" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="B167" s="10" t="s">
+      <c r="B167" s="8" t="s">
         <v>776</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" s="9" t="s">
+      <c r="A168" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="B168" s="10" t="s">
+      <c r="B168" s="8" t="s">
         <v>777</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" s="9" t="s">
+      <c r="A169" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="B169" s="10" t="s">
+      <c r="B169" s="8" t="s">
         <v>778</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170" s="9" t="s">
+      <c r="A170" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="B170" s="10" t="s">
+      <c r="B170" s="8" t="s">
         <v>779</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171" s="9" t="s">
+      <c r="A171" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="B171" s="10" t="s">
+      <c r="B171" s="8" t="s">
         <v>780</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172" s="9" t="s">
+      <c r="A172" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="B172" s="10" t="s">
+      <c r="B172" s="8" t="s">
         <v>781</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" s="9" t="s">
+      <c r="A173" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="B173" s="10" t="s">
+      <c r="B173" s="8" t="s">
         <v>782</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" s="9" t="s">
+      <c r="A174" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="B174" s="10" t="s">
+      <c r="B174" s="8" t="s">
         <v>783</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175" s="9" t="s">
+      <c r="A175" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B175" s="10" t="s">
+      <c r="B175" s="8" t="s">
         <v>784</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176" s="9" t="s">
+      <c r="A176" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B176" s="10" t="s">
+      <c r="B176" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177" s="9" t="s">
+      <c r="A177" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="B177" s="10" t="s">
+      <c r="B177" s="8" t="s">
         <v>785</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178" s="9" t="s">
+      <c r="A178" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="B178" s="10" t="s">
+      <c r="B178" s="8" t="s">
         <v>786</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179" s="9" t="s">
+      <c r="A179" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="B179" s="10" t="s">
+      <c r="B179" s="8" t="s">
         <v>787</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180" s="9" t="s">
+      <c r="A180" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="B180" s="10" t="s">
+      <c r="B180" s="8" t="s">
         <v>788</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181" s="9" t="s">
+      <c r="A181" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="B181" s="10" t="s">
+      <c r="B181" s="8" t="s">
         <v>789</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A182" s="9" t="s">
+      <c r="A182" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="B182" s="10" t="s">
+      <c r="B182" s="8" t="s">
         <v>790</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183" s="9" t="s">
+      <c r="A183" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="B183" s="10" t="s">
+      <c r="B183" s="8" t="s">
         <v>791</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A184" s="9" t="s">
+      <c r="A184" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="B184" s="10" t="s">
+      <c r="B184" s="8" t="s">
         <v>792</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185" s="9" t="s">
+      <c r="A185" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="B185" s="10" t="s">
+      <c r="B185" s="8" t="s">
         <v>793</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186" s="9" t="s">
+      <c r="A186" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="B186" s="10" t="s">
+      <c r="B186" s="8" t="s">
         <v>794</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187" s="9" t="s">
+      <c r="A187" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="B187" s="10" t="s">
+      <c r="B187" s="8" t="s">
         <v>795</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188" s="9" t="s">
+      <c r="A188" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="B188" s="10" t="s">
+      <c r="B188" s="8" t="s">
         <v>796</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A189" s="9" t="s">
+      <c r="A189" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="B189" s="10" t="s">
+      <c r="B189" s="8" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A190" s="9" t="s">
+      <c r="A190" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="B190" s="10" t="s">
+      <c r="B190" s="8" t="s">
         <v>798</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A191" s="9" t="s">
+      <c r="A191" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="B191" s="10" t="s">
+      <c r="B191" s="8" t="s">
         <v>799</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A192" s="9" t="s">
+      <c r="A192" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="B192" s="10" t="s">
+      <c r="B192" s="8" t="s">
         <v>800</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193" s="9" t="s">
+      <c r="A193" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="B193" s="10" t="s">
+      <c r="B193" s="8" t="s">
         <v>801</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194" s="9" t="s">
+      <c r="A194" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="B194" s="10" t="s">
+      <c r="B194" s="8" t="s">
         <v>802</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195" s="9" t="s">
+      <c r="A195" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="B195" s="10" t="s">
+      <c r="B195" s="8" t="s">
         <v>803</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196" s="9" t="s">
+      <c r="A196" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="B196" s="10" t="s">
+      <c r="B196" s="8" t="s">
         <v>804</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197" s="9" t="s">
+      <c r="A197" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="B197" s="10" t="s">
+      <c r="B197" s="8" t="s">
         <v>805</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198" s="9" t="s">
+      <c r="A198" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="B198" s="10" t="s">
+      <c r="B198" s="8" t="s">
         <v>806</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199" s="9" t="s">
+      <c r="A199" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="B199" s="10" t="s">
+      <c r="B199" s="8" t="s">
         <v>807</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A200" s="9" t="s">
+      <c r="A200" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="B200" s="10" t="s">
+      <c r="B200" s="8" t="s">
         <v>808</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A201" s="9" t="s">
+      <c r="A201" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="B201" s="10" t="s">
+      <c r="B201" s="8" t="s">
         <v>809</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A202" s="9" t="s">
+      <c r="A202" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="B202" s="10" t="s">
+      <c r="B202" s="8" t="s">
         <v>810</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A203" s="9" t="s">
+      <c r="A203" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="B203" s="10" t="s">
+      <c r="B203" s="8" t="s">
         <v>811</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A204" s="9" t="s">
+      <c r="A204" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="B204" s="10" t="s">
+      <c r="B204" s="8" t="s">
         <v>812</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A205" s="9" t="s">
+      <c r="A205" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="B205" s="10" t="s">
+      <c r="B205" s="8" t="s">
         <v>813</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A206" s="9" t="s">
+      <c r="A206" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B206" s="10" t="s">
+      <c r="B206" s="8" t="s">
         <v>814</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A207" s="9" t="s">
+      <c r="A207" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="B207" s="10" t="s">
+      <c r="B207" s="8" t="s">
         <v>815</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A208" s="9" t="s">
+      <c r="A208" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B208" s="10" t="s">
+      <c r="B208" s="8" t="s">
         <v>816</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A209" s="9" t="s">
+      <c r="A209" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="B209" s="10" t="s">
+      <c r="B209" s="8" t="s">
         <v>817</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A210" s="9" t="s">
+      <c r="A210" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="B210" s="10" t="s">
+      <c r="B210" s="8" t="s">
         <v>818</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A211" s="9" t="s">
+      <c r="A211" s="7" t="s">
         <v>429</v>
       </c>
-      <c r="B211" s="10" t="s">
+      <c r="B211" s="8" t="s">
         <v>819</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A212" s="9" t="s">
+      <c r="A212" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="B212" s="10" t="s">
+      <c r="B212" s="8" t="s">
         <v>820</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A213" s="9" t="s">
+      <c r="A213" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="B213" s="10" t="s">
+      <c r="B213" s="8" t="s">
         <v>821</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A214" s="9" t="s">
+      <c r="A214" s="7" t="s">
         <v>432</v>
       </c>
-      <c r="B214" s="10" t="s">
+      <c r="B214" s="8" t="s">
         <v>822</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A215" s="9" t="s">
+      <c r="A215" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="B215" s="10" t="s">
+      <c r="B215" s="8" t="s">
         <v>823</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A216" s="9" t="s">
+      <c r="A216" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="B216" s="10" t="s">
+      <c r="B216" s="8" t="s">
         <v>824</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A217" s="9" t="s">
+      <c r="A217" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="B217" s="10" t="s">
+      <c r="B217" s="8" t="s">
         <v>825</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A218" s="9" t="s">
+      <c r="A218" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="B218" s="10" t="s">
+      <c r="B218" s="8" t="s">
         <v>826</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A219" s="9" t="s">
+      <c r="A219" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="B219" s="10" t="s">
+      <c r="B219" s="8" t="s">
         <v>827</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A220" s="9" t="s">
+      <c r="A220" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="B220" s="10" t="s">
+      <c r="B220" s="8" t="s">
         <v>828</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A221" s="9" t="s">
+      <c r="A221" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="B221" s="10" t="s">
+      <c r="B221" s="8" t="s">
         <v>829</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A222" s="9" t="s">
+      <c r="A222" s="7" t="s">
         <v>440</v>
       </c>
-      <c r="B222" s="10" t="s">
+      <c r="B222" s="8" t="s">
         <v>830</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A223" s="9" t="s">
+      <c r="A223" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="B223" s="10" t="s">
+      <c r="B223" s="8" t="s">
         <v>831</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A224" s="9" t="s">
+      <c r="A224" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="B224" s="10" t="s">
+      <c r="B224" s="8" t="s">
         <v>832</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A225" s="9" t="s">
+      <c r="A225" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="B225" s="10" t="s">
+      <c r="B225" s="8" t="s">
         <v>833</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A226" s="9" t="s">
+      <c r="A226" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="B226" s="10" t="s">
+      <c r="B226" s="8" t="s">
         <v>834</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A227" s="9" t="s">
+      <c r="A227" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="B227" s="10" t="s">
+      <c r="B227" s="8" t="s">
         <v>835</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A228" s="9" t="s">
+      <c r="A228" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="B228" s="10" t="s">
+      <c r="B228" s="8" t="s">
         <v>836</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A229" s="9" t="s">
+      <c r="A229" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="B229" s="10" t="s">
+      <c r="B229" s="8" t="s">
         <v>837</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A230" s="9" t="s">
+      <c r="A230" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B230" s="10" t="s">
+      <c r="B230" s="8" t="s">
         <v>838</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A231" s="9" t="s">
+      <c r="A231" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="B231" s="10" t="s">
+      <c r="B231" s="8" t="s">
         <v>839</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A232" s="9" t="s">
+      <c r="A232" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B232" s="10" t="s">
+      <c r="B232" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A233" s="9" t="s">
+      <c r="A233" s="7" t="s">
         <v>449</v>
       </c>
-      <c r="B233" s="10" t="s">
+      <c r="B233" s="8" t="s">
         <v>840</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A234" s="9" t="s">
+      <c r="A234" s="7" t="s">
         <v>450</v>
       </c>
-      <c r="B234" s="10" t="s">
+      <c r="B234" s="8" t="s">
         <v>841</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A235" s="9" t="s">
+      <c r="A235" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="B235" s="10" t="s">
+      <c r="B235" s="8" t="s">
         <v>842</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A236" s="9" t="s">
+      <c r="A236" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="B236" s="10" t="s">
+      <c r="B236" s="8" t="s">
         <v>843</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A237" s="9" t="s">
+      <c r="A237" s="7" t="s">
         <v>453</v>
       </c>
-      <c r="B237" s="10" t="s">
+      <c r="B237" s="8" t="s">
         <v>844</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A238" s="9" t="s">
+      <c r="A238" s="7" t="s">
         <v>454</v>
       </c>
-      <c r="B238" s="10" t="s">
+      <c r="B238" s="8" t="s">
         <v>845</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A239" s="9" t="s">
+      <c r="A239" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="B239" s="10" t="s">
+      <c r="B239" s="8" t="s">
         <v>846</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A240" s="9" t="s">
+      <c r="A240" s="7" t="s">
         <v>456</v>
       </c>
-      <c r="B240" s="10" t="s">
+      <c r="B240" s="8" t="s">
         <v>847</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A241" s="9" t="s">
+      <c r="A241" s="7" t="s">
         <v>457</v>
       </c>
-      <c r="B241" s="10" t="s">
+      <c r="B241" s="8" t="s">
         <v>848</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A242" s="9" t="s">
+      <c r="A242" s="7" t="s">
         <v>458</v>
       </c>
-      <c r="B242" s="10" t="s">
+      <c r="B242" s="8" t="s">
         <v>849</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A243" s="9" t="s">
+      <c r="A243" s="7" t="s">
         <v>459</v>
       </c>
-      <c r="B243" s="10" t="s">
+      <c r="B243" s="8" t="s">
         <v>850</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A244" s="9" t="s">
+      <c r="A244" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B244" s="10" t="s">
+      <c r="B244" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A245" s="9" t="s">
+      <c r="A245" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B245" s="10" t="s">
+      <c r="B245" s="8" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A246" s="9" t="s">
+      <c r="A246" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B246" s="10" t="s">
+      <c r="B246" s="8" t="s">
         <v>851</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A247" s="9" t="s">
+      <c r="A247" s="7" t="s">
         <v>460</v>
       </c>
-      <c r="B247" s="10" t="s">
+      <c r="B247" s="8" t="s">
         <v>852</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A248" s="9" t="s">
+      <c r="A248" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="B248" s="10" t="s">
+      <c r="B248" s="8" t="s">
         <v>853</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A249" s="9" t="s">
+      <c r="A249" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="B249" s="10" t="s">
+      <c r="B249" s="8" t="s">
         <v>854</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A250" s="9" t="s">
+      <c r="A250" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="B250" s="10" t="s">
+      <c r="B250" s="8" t="s">
         <v>855</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A251" s="9" t="s">
+      <c r="A251" s="7" t="s">
         <v>464</v>
       </c>
-      <c r="B251" s="10" t="s">
+      <c r="B251" s="8" t="s">
         <v>856</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A252" s="9" t="s">
+      <c r="A252" s="7" t="s">
         <v>465</v>
       </c>
-      <c r="B252" s="10" t="s">
+      <c r="B252" s="8" t="s">
         <v>857</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A253" s="9" t="s">
+      <c r="A253" s="7" t="s">
         <v>466</v>
       </c>
-      <c r="B253" s="10" t="s">
+      <c r="B253" s="8" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A254" s="9" t="s">
+      <c r="A254" s="7" t="s">
         <v>467</v>
       </c>
-      <c r="B254" s="10" t="s">
+      <c r="B254" s="8" t="s">
         <v>859</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A255" s="9" t="s">
+      <c r="A255" s="7" t="s">
         <v>468</v>
       </c>
-      <c r="B255" s="10" t="s">
+      <c r="B255" s="8" t="s">
         <v>860</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A256" s="9" t="s">
+      <c r="A256" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="B256" s="10" t="s">
+      <c r="B256" s="8" t="s">
         <v>861</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A257" s="9" t="s">
+      <c r="A257" s="7" t="s">
         <v>470</v>
       </c>
-      <c r="B257" s="10" t="s">
+      <c r="B257" s="8" t="s">
         <v>862</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A258" s="9" t="s">
+      <c r="A258" s="7" t="s">
         <v>471</v>
       </c>
-      <c r="B258" s="10" t="s">
+      <c r="B258" s="8" t="s">
         <v>863</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A259" s="9" t="s">
+      <c r="A259" s="7" t="s">
         <v>472</v>
       </c>
-      <c r="B259" s="10" t="s">
+      <c r="B259" s="8" t="s">
         <v>864</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A260" s="9" t="s">
+      <c r="A260" s="7" t="s">
         <v>473</v>
       </c>
-      <c r="B260" s="10" t="s">
+      <c r="B260" s="8" t="s">
         <v>865</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A261" s="9" t="s">
+      <c r="A261" s="7" t="s">
         <v>474</v>
       </c>
-      <c r="B261" s="10" t="s">
+      <c r="B261" s="8" t="s">
         <v>866</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A262" s="9" t="s">
+      <c r="A262" s="7" t="s">
         <v>475</v>
       </c>
-      <c r="B262" s="10" t="s">
+      <c r="B262" s="8" t="s">
         <v>867</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A263" s="9" t="s">
+      <c r="A263" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="B263" s="10" t="s">
+      <c r="B263" s="8" t="s">
         <v>868</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A264" s="9" t="s">
+      <c r="A264" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="B264" s="10" t="s">
+      <c r="B264" s="8" t="s">
         <v>869</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A265" s="9" t="s">
+      <c r="A265" s="7" t="s">
         <v>478</v>
       </c>
-      <c r="B265" s="10" t="s">
+      <c r="B265" s="8" t="s">
         <v>870</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A266" s="9" t="s">
+      <c r="A266" s="7" t="s">
         <v>479</v>
       </c>
-      <c r="B266" s="10" t="s">
+      <c r="B266" s="8" t="s">
         <v>871</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A267" s="9" t="s">
+      <c r="A267" s="7" t="s">
         <v>480</v>
       </c>
-      <c r="B267" s="10" t="s">
+      <c r="B267" s="8" t="s">
         <v>872</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A268" s="9" t="s">
+      <c r="A268" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B268" s="10" t="s">
+      <c r="B268" s="8" t="s">
         <v>873</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A269" s="9" t="s">
+      <c r="A269" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B269" s="10" t="s">
+      <c r="B269" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A270" s="9" t="s">
+      <c r="A270" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="B270" s="10" t="s">
+      <c r="B270" s="8" t="s">
         <v>874</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A271" s="9" t="s">
+      <c r="A271" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B271" s="10" t="s">
+      <c r="B271" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A272" s="9" t="s">
+      <c r="A272" s="7" t="s">
         <v>482</v>
       </c>
-      <c r="B272" s="10" t="s">
+      <c r="B272" s="8" t="s">
         <v>875</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A273" s="9" t="s">
+      <c r="A273" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="B273" s="10" t="s">
+      <c r="B273" s="8" t="s">
         <v>876</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A274" s="9" t="s">
+      <c r="A274" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="B274" s="10" t="s">
+      <c r="B274" s="8" t="s">
         <v>877</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A275" s="9" t="s">
+      <c r="A275" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B275" s="10" t="s">
+      <c r="B275" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A276" s="9" t="s">
+      <c r="A276" s="7" t="s">
         <v>485</v>
       </c>
-      <c r="B276" s="10" t="s">
+      <c r="B276" s="8" t="s">
         <v>878</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A277" s="9" t="s">
+      <c r="A277" s="7" t="s">
         <v>486</v>
       </c>
-      <c r="B277" s="10" t="s">
+      <c r="B277" s="8" t="s">
         <v>879</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A278" s="9" t="s">
+      <c r="A278" s="7" t="s">
         <v>487</v>
       </c>
-      <c r="B278" s="10" t="s">
+      <c r="B278" s="8" t="s">
         <v>880</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A279" s="9" t="s">
+      <c r="A279" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="B279" s="10" t="s">
+      <c r="B279" s="8" t="s">
         <v>881</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A280" s="9" t="s">
+      <c r="A280" s="7" t="s">
         <v>489</v>
       </c>
-      <c r="B280" s="10" t="s">
+      <c r="B280" s="8" t="s">
         <v>882</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A281" s="9" t="s">
+      <c r="A281" s="7" t="s">
         <v>490</v>
       </c>
-      <c r="B281" s="10" t="s">
+      <c r="B281" s="8" t="s">
         <v>883</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A282" s="9" t="s">
+      <c r="A282" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="B282" s="10" t="s">
+      <c r="B282" s="8" t="s">
         <v>884</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A283" s="9" t="s">
+      <c r="A283" s="7" t="s">
         <v>492</v>
       </c>
-      <c r="B283" s="10" t="s">
+      <c r="B283" s="8" t="s">
         <v>885</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A284" s="9" t="s">
+      <c r="A284" s="7" t="s">
         <v>493</v>
       </c>
-      <c r="B284" s="10" t="s">
+      <c r="B284" s="8" t="s">
         <v>886</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A285" s="9" t="s">
+      <c r="A285" s="7" t="s">
         <v>494</v>
       </c>
-      <c r="B285" s="10" t="s">
+      <c r="B285" s="8" t="s">
         <v>887</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A286" s="9" t="s">
+      <c r="A286" s="7" t="s">
         <v>495</v>
       </c>
-      <c r="B286" s="10" t="s">
+      <c r="B286" s="8" t="s">
         <v>888</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A287" s="9" t="s">
+      <c r="A287" s="7" t="s">
         <v>496</v>
       </c>
-      <c r="B287" s="10" t="s">
+      <c r="B287" s="8" t="s">
         <v>889</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A288" s="9" t="s">
+      <c r="A288" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="B288" s="10" t="s">
+      <c r="B288" s="8" t="s">
         <v>890</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A289" s="9" t="s">
+      <c r="A289" s="7" t="s">
         <v>498</v>
       </c>
-      <c r="B289" s="10" t="s">
+      <c r="B289" s="8" t="s">
         <v>891</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A290" s="9" t="s">
+      <c r="A290" s="7" t="s">
         <v>499</v>
       </c>
-      <c r="B290" s="10" t="s">
+      <c r="B290" s="8" t="s">
         <v>892</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A291" s="9" t="s">
+      <c r="A291" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="B291" s="10" t="s">
+      <c r="B291" s="8" t="s">
         <v>893</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A292" s="9" t="s">
+      <c r="A292" s="7" t="s">
         <v>501</v>
       </c>
-      <c r="B292" s="10" t="s">
+      <c r="B292" s="8" t="s">
         <v>894</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A293" s="9" t="s">
+      <c r="A293" s="7" t="s">
         <v>502</v>
       </c>
-      <c r="B293" s="10" t="s">
+      <c r="B293" s="8" t="s">
         <v>895</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A294" s="9" t="s">
+      <c r="A294" s="7" t="s">
         <v>503</v>
       </c>
-      <c r="B294" s="10" t="s">
+      <c r="B294" s="8" t="s">
         <v>896</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A295" s="9" t="s">
+      <c r="A295" s="7" t="s">
         <v>504</v>
       </c>
-      <c r="B295" s="10" t="s">
+      <c r="B295" s="8" t="s">
         <v>897</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A296" s="9" t="s">
+      <c r="A296" s="7" t="s">
         <v>505</v>
       </c>
-      <c r="B296" s="10" t="s">
+      <c r="B296" s="8" t="s">
         <v>898</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A297" s="9" t="s">
+      <c r="A297" s="7" t="s">
         <v>506</v>
       </c>
-      <c r="B297" s="10" t="s">
+      <c r="B297" s="8" t="s">
         <v>899</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A298" s="9" t="s">
+      <c r="A298" s="7" t="s">
         <v>507</v>
       </c>
-      <c r="B298" s="10" t="s">
+      <c r="B298" s="8" t="s">
         <v>900</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A299" s="9" t="s">
+      <c r="A299" s="7" t="s">
         <v>508</v>
       </c>
-      <c r="B299" s="10" t="s">
+      <c r="B299" s="8" t="s">
         <v>901</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A300" s="9" t="s">
+      <c r="A300" s="7" t="s">
         <v>509</v>
       </c>
-      <c r="B300" s="10" t="s">
+      <c r="B300" s="8" t="s">
         <v>902</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A301" s="9" t="s">
+      <c r="A301" s="7" t="s">
         <v>510</v>
       </c>
-      <c r="B301" s="10" t="s">
+      <c r="B301" s="8" t="s">
         <v>903</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A302" s="9" t="s">
+      <c r="A302" s="7" t="s">
         <v>511</v>
       </c>
-      <c r="B302" s="10" t="s">
+      <c r="B302" s="8" t="s">
         <v>904</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A303" s="9" t="s">
+      <c r="A303" s="7" t="s">
         <v>512</v>
       </c>
-      <c r="B303" s="10" t="s">
+      <c r="B303" s="8" t="s">
         <v>905</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A304" s="9" t="s">
+      <c r="A304" s="7" t="s">
         <v>513</v>
       </c>
-      <c r="B304" s="10" t="s">
+      <c r="B304" s="8" t="s">
         <v>906</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A305" s="9" t="s">
+      <c r="A305" s="7" t="s">
         <v>514</v>
       </c>
-      <c r="B305" s="10" t="s">
+      <c r="B305" s="8" t="s">
         <v>907</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A306" s="9" t="s">
+      <c r="A306" s="7" t="s">
         <v>515</v>
       </c>
-      <c r="B306" s="10" t="s">
+      <c r="B306" s="8" t="s">
         <v>908</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A307" s="9" t="s">
+      <c r="A307" s="7" t="s">
         <v>516</v>
       </c>
-      <c r="B307" s="10" t="s">
+      <c r="B307" s="8" t="s">
         <v>909</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A308" s="9" t="s">
+      <c r="A308" s="7" t="s">
         <v>517</v>
       </c>
-      <c r="B308" s="10" t="s">
+      <c r="B308" s="8" t="s">
         <v>910</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A309" s="9" t="s">
+      <c r="A309" s="7" t="s">
         <v>518</v>
       </c>
-      <c r="B309" s="10" t="s">
+      <c r="B309" s="8" t="s">
         <v>911</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A310" s="9" t="s">
+      <c r="A310" s="7" t="s">
         <v>519</v>
       </c>
-      <c r="B310" s="10" t="s">
+      <c r="B310" s="8" t="s">
         <v>912</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A311" s="9" t="s">
+      <c r="A311" s="7" t="s">
         <v>520</v>
       </c>
-      <c r="B311" s="10" t="s">
+      <c r="B311" s="8" t="s">
         <v>913</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A312" s="9" t="s">
+      <c r="A312" s="7" t="s">
         <v>521</v>
       </c>
-      <c r="B312" s="10" t="s">
+      <c r="B312" s="8" t="s">
         <v>914</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A313" s="9" t="s">
+      <c r="A313" s="7" t="s">
         <v>522</v>
       </c>
-      <c r="B313" s="10" t="s">
+      <c r="B313" s="8" t="s">
         <v>915</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A314" s="9" t="s">
+      <c r="A314" s="7" t="s">
         <v>523</v>
       </c>
-      <c r="B314" s="10" t="s">
+      <c r="B314" s="8" t="s">
         <v>916</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A315" s="9" t="s">
+      <c r="A315" s="7" t="s">
         <v>524</v>
       </c>
-      <c r="B315" s="10" t="s">
+      <c r="B315" s="8" t="s">
         <v>917</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A316" s="9" t="s">
+      <c r="A316" s="7" t="s">
         <v>525</v>
       </c>
-      <c r="B316" s="10" t="s">
+      <c r="B316" s="8" t="s">
         <v>918</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A317" s="9" t="s">
+      <c r="A317" s="7" t="s">
         <v>526</v>
       </c>
-      <c r="B317" s="10" t="s">
+      <c r="B317" s="8" t="s">
         <v>919</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A318" s="9" t="s">
+      <c r="A318" s="7" t="s">
         <v>527</v>
       </c>
-      <c r="B318" s="10" t="s">
+      <c r="B318" s="8" t="s">
         <v>920</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A319" s="9" t="s">
+      <c r="A319" s="7" t="s">
         <v>528</v>
       </c>
-      <c r="B319" s="10" t="s">
+      <c r="B319" s="8" t="s">
         <v>921</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A320" s="9" t="s">
+      <c r="A320" s="7" t="s">
         <v>529</v>
       </c>
-      <c r="B320" s="10" t="s">
+      <c r="B320" s="8" t="s">
         <v>922</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A321" s="9" t="s">
+      <c r="A321" s="7" t="s">
         <v>530</v>
       </c>
-      <c r="B321" s="10" t="s">
+      <c r="B321" s="8" t="s">
         <v>923</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A322" s="9" t="s">
+      <c r="A322" s="7" t="s">
         <v>531</v>
       </c>
-      <c r="B322" s="10" t="s">
+      <c r="B322" s="8" t="s">
         <v>924</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A323" s="9" t="s">
+      <c r="A323" s="7" t="s">
         <v>532</v>
       </c>
-      <c r="B323" s="10" t="s">
+      <c r="B323" s="8" t="s">
         <v>925</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A324" s="9" t="s">
+      <c r="A324" s="7" t="s">
         <v>533</v>
       </c>
-      <c r="B324" s="10" t="s">
+      <c r="B324" s="8" t="s">
         <v>926</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A325" s="9" t="s">
+      <c r="A325" s="7" t="s">
         <v>534</v>
       </c>
-      <c r="B325" s="10" t="s">
+      <c r="B325" s="8" t="s">
         <v>927</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A326" s="9" t="s">
+      <c r="A326" s="7" t="s">
         <v>535</v>
       </c>
-      <c r="B326" s="10" t="s">
+      <c r="B326" s="8" t="s">
         <v>928</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A327" s="9" t="s">
+      <c r="A327" s="7" t="s">
         <v>536</v>
       </c>
-      <c r="B327" s="10" t="s">
+      <c r="B327" s="8" t="s">
         <v>929</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A328" s="9" t="s">
+      <c r="A328" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="B328" s="10" t="s">
+      <c r="B328" s="8" t="s">
         <v>930</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A329" s="9" t="s">
+      <c r="A329" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="B329" s="10" t="s">
+      <c r="B329" s="8" t="s">
         <v>931</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A330" s="9" t="s">
+      <c r="A330" s="7" t="s">
         <v>539</v>
       </c>
-      <c r="B330" s="10" t="s">
+      <c r="B330" s="8" t="s">
         <v>932</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A331" s="9" t="s">
+      <c r="A331" s="7" t="s">
         <v>540</v>
       </c>
-      <c r="B331" s="10" t="s">
+      <c r="B331" s="8" t="s">
         <v>933</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A332" s="9" t="s">
+      <c r="A332" s="7" t="s">
         <v>541</v>
       </c>
-      <c r="B332" s="10" t="s">
+      <c r="B332" s="8" t="s">
         <v>934</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A333" s="9" t="s">
+      <c r="A333" s="7" t="s">
         <v>542</v>
       </c>
-      <c r="B333" s="10" t="s">
+      <c r="B333" s="8" t="s">
         <v>935</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A334" s="9" t="s">
+      <c r="A334" s="7" t="s">
         <v>543</v>
       </c>
-      <c r="B334" s="10" t="s">
+      <c r="B334" s="8" t="s">
         <v>936</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A335" s="9" t="s">
+      <c r="A335" s="7" t="s">
         <v>544</v>
       </c>
-      <c r="B335" s="10" t="s">
+      <c r="B335" s="8" t="s">
         <v>937</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A336" s="9" t="s">
+      <c r="A336" s="7" t="s">
         <v>545</v>
       </c>
-      <c r="B336" s="10" t="s">
+      <c r="B336" s="8" t="s">
         <v>938</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A337" s="9" t="s">
+      <c r="A337" s="7" t="s">
         <v>546</v>
       </c>
-      <c r="B337" s="10" t="s">
+      <c r="B337" s="8" t="s">
         <v>939</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A338" s="9" t="s">
+      <c r="A338" s="7" t="s">
         <v>547</v>
       </c>
-      <c r="B338" s="10" t="s">
+      <c r="B338" s="8" t="s">
         <v>940</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A339" s="9" t="s">
+      <c r="A339" s="7" t="s">
         <v>548</v>
       </c>
-      <c r="B339" s="10" t="s">
+      <c r="B339" s="8" t="s">
         <v>941</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A340" s="9" t="s">
+      <c r="A340" s="7" t="s">
         <v>549</v>
       </c>
-      <c r="B340" s="10" t="s">
+      <c r="B340" s="8" t="s">
         <v>942</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A341" s="9" t="s">
+      <c r="A341" s="7" t="s">
         <v>550</v>
       </c>
-      <c r="B341" s="10" t="s">
+      <c r="B341" s="8" t="s">
         <v>943</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A342" s="9" t="s">
+      <c r="A342" s="7" t="s">
         <v>551</v>
       </c>
-      <c r="B342" s="10" t="s">
+      <c r="B342" s="8" t="s">
         <v>944</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A343" s="9" t="s">
+      <c r="A343" s="7" t="s">
         <v>552</v>
       </c>
-      <c r="B343" s="10" t="s">
+      <c r="B343" s="8" t="s">
         <v>945</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A344" s="9" t="s">
+      <c r="A344" s="7" t="s">
         <v>553</v>
       </c>
-      <c r="B344" s="10" t="s">
+      <c r="B344" s="8" t="s">
         <v>946</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A345" s="9" t="s">
+      <c r="A345" s="7" t="s">
         <v>554</v>
       </c>
-      <c r="B345" s="10" t="s">
+      <c r="B345" s="8" t="s">
         <v>947</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A346" s="9" t="s">
+      <c r="A346" s="7" t="s">
         <v>555</v>
       </c>
-      <c r="B346" s="10" t="s">
+      <c r="B346" s="8" t="s">
         <v>948</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A347" s="9" t="s">
+      <c r="A347" s="7" t="s">
         <v>556</v>
       </c>
-      <c r="B347" s="10" t="s">
+      <c r="B347" s="8" t="s">
         <v>949</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A348" s="9" t="s">
+      <c r="A348" s="7" t="s">
         <v>557</v>
       </c>
-      <c r="B348" s="10" t="s">
+      <c r="B348" s="8" t="s">
         <v>950</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A349" s="9" t="s">
+      <c r="A349" s="7" t="s">
         <v>558</v>
       </c>
-      <c r="B349" s="10" t="s">
+      <c r="B349" s="8" t="s">
         <v>951</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A350" s="9" t="s">
+      <c r="A350" s="7" t="s">
         <v>559</v>
       </c>
-      <c r="B350" s="10" t="s">
+      <c r="B350" s="8" t="s">
         <v>952</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A351" s="9" t="s">
+      <c r="A351" s="7" t="s">
         <v>560</v>
       </c>
-      <c r="B351" s="10" t="s">
+      <c r="B351" s="8" t="s">
         <v>953</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A352" s="9" t="s">
+      <c r="A352" s="7" t="s">
         <v>561</v>
       </c>
-      <c r="B352" s="10" t="s">
+      <c r="B352" s="8" t="s">
         <v>954</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A353" s="9" t="s">
+      <c r="A353" s="7" t="s">
         <v>562</v>
       </c>
-      <c r="B353" s="10" t="s">
+      <c r="B353" s="8" t="s">
         <v>955</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A354" s="9" t="s">
+      <c r="A354" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="B354" s="10" t="s">
+      <c r="B354" s="8" t="s">
         <v>956</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A355" s="9" t="s">
+      <c r="A355" s="7" t="s">
         <v>564</v>
       </c>
-      <c r="B355" s="10" t="s">
+      <c r="B355" s="8" t="s">
         <v>957</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A356" s="9" t="s">
+      <c r="A356" s="7" t="s">
         <v>565</v>
       </c>
-      <c r="B356" s="10" t="s">
+      <c r="B356" s="8" t="s">
         <v>958</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A357" s="9" t="s">
+      <c r="A357" s="7" t="s">
         <v>566</v>
       </c>
-      <c r="B357" s="10" t="s">
+      <c r="B357" s="8" t="s">
         <v>959</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A358" s="9" t="s">
+      <c r="A358" s="7" t="s">
         <v>567</v>
       </c>
-      <c r="B358" s="10" t="s">
+      <c r="B358" s="8" t="s">
         <v>960</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A359" s="9" t="s">
+      <c r="A359" s="7" t="s">
         <v>568</v>
       </c>
-      <c r="B359" s="10" t="s">
+      <c r="B359" s="8" t="s">
         <v>961</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A360" s="9" t="s">
+      <c r="A360" s="7" t="s">
         <v>569</v>
       </c>
-      <c r="B360" s="10" t="s">
+      <c r="B360" s="8" t="s">
         <v>962</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A361" s="9" t="s">
+      <c r="A361" s="7" t="s">
         <v>570</v>
       </c>
-      <c r="B361" s="10" t="s">
+      <c r="B361" s="8" t="s">
         <v>963</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A362" s="9" t="s">
+      <c r="A362" s="7" t="s">
         <v>571</v>
       </c>
-      <c r="B362" s="10" t="s">
+      <c r="B362" s="8" t="s">
         <v>964</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A363" s="9" t="s">
+      <c r="A363" s="7" t="s">
         <v>572</v>
       </c>
-      <c r="B363" s="10" t="s">
+      <c r="B363" s="8" t="s">
         <v>965</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A364" s="9" t="s">
+      <c r="A364" s="7" t="s">
         <v>573</v>
       </c>
-      <c r="B364" s="10" t="s">
+      <c r="B364" s="8" t="s">
         <v>966</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A365" s="9" t="s">
+      <c r="A365" s="7" t="s">
         <v>574</v>
       </c>
-      <c r="B365" s="10" t="s">
+      <c r="B365" s="8" t="s">
         <v>967</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A366" s="9" t="s">
+      <c r="A366" s="7" t="s">
         <v>575</v>
       </c>
-      <c r="B366" s="10" t="s">
+      <c r="B366" s="8" t="s">
         <v>968</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A367" s="9" t="s">
+      <c r="A367" s="7" t="s">
         <v>576</v>
       </c>
-      <c r="B367" s="10" t="s">
+      <c r="B367" s="8" t="s">
         <v>969</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A368" s="9" t="s">
+      <c r="A368" s="7" t="s">
         <v>577</v>
       </c>
-      <c r="B368" s="10" t="s">
+      <c r="B368" s="8" t="s">
         <v>970</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A369" s="9" t="s">
+      <c r="A369" s="7" t="s">
         <v>578</v>
       </c>
-      <c r="B369" s="10" t="s">
+      <c r="B369" s="8" t="s">
         <v>971</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A370" s="9" t="s">
+      <c r="A370" s="7" t="s">
         <v>579</v>
       </c>
-      <c r="B370" s="10" t="s">
+      <c r="B370" s="8" t="s">
         <v>972</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A371" s="9" t="s">
+      <c r="A371" s="7" t="s">
         <v>580</v>
       </c>
-      <c r="B371" s="10" t="s">
+      <c r="B371" s="8" t="s">
         <v>973</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A372" s="9" t="s">
+      <c r="A372" s="7" t="s">
         <v>581</v>
       </c>
-      <c r="B372" s="10" t="s">
+      <c r="B372" s="8" t="s">
         <v>974</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A373" s="9" t="s">
+      <c r="A373" s="7" t="s">
         <v>582</v>
       </c>
-      <c r="B373" s="10" t="s">
+      <c r="B373" s="8" t="s">
         <v>975</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A374" s="9" t="s">
+      <c r="A374" s="7" t="s">
         <v>583</v>
       </c>
-      <c r="B374" s="10" t="s">
+      <c r="B374" s="8" t="s">
         <v>976</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A375" s="9" t="s">
+      <c r="A375" s="7" t="s">
         <v>584</v>
       </c>
-      <c r="B375" s="10" t="s">
+      <c r="B375" s="8" t="s">
         <v>977</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A376" s="9" t="s">
+      <c r="A376" s="7" t="s">
         <v>585</v>
       </c>
-      <c r="B376" s="10" t="s">
+      <c r="B376" s="8" t="s">
         <v>978</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A377" s="9" t="s">
+      <c r="A377" s="7" t="s">
         <v>586</v>
       </c>
-      <c r="B377" s="10" t="s">
+      <c r="B377" s="8" t="s">
         <v>979</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A378" s="9" t="s">
+      <c r="A378" s="7" t="s">
         <v>587</v>
       </c>
-      <c r="B378" s="10" t="s">
+      <c r="B378" s="8" t="s">
         <v>980</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A379" s="9" t="s">
+      <c r="A379" s="7" t="s">
         <v>588</v>
       </c>
-      <c r="B379" s="10" t="s">
+      <c r="B379" s="8" t="s">
         <v>981</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A380" s="9" t="s">
+      <c r="A380" s="7" t="s">
         <v>589</v>
       </c>
-      <c r="B380" s="10" t="s">
+      <c r="B380" s="8" t="s">
         <v>982</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A381" s="9" t="s">
+      <c r="A381" s="7" t="s">
         <v>590</v>
       </c>
-      <c r="B381" s="10" t="s">
+      <c r="B381" s="8" t="s">
         <v>983</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A382" s="9" t="s">
+      <c r="A382" s="7" t="s">
         <v>591</v>
       </c>
-      <c r="B382" s="10" t="s">
+      <c r="B382" s="8" t="s">
         <v>984</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A383" s="9" t="s">
+      <c r="A383" s="7" t="s">
         <v>592</v>
       </c>
-      <c r="B383" s="10" t="s">
+      <c r="B383" s="8" t="s">
         <v>985</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A384" s="9" t="s">
+      <c r="A384" s="7" t="s">
         <v>593</v>
       </c>
-      <c r="B384" s="10" t="s">
+      <c r="B384" s="8" t="s">
         <v>986</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A385" s="9" t="s">
+      <c r="A385" s="7" t="s">
         <v>594</v>
       </c>
-      <c r="B385" s="10" t="s">
+      <c r="B385" s="8" t="s">
         <v>987</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A386" s="9" t="s">
+      <c r="A386" s="7" t="s">
         <v>595</v>
       </c>
-      <c r="B386" s="10" t="s">
+      <c r="B386" s="8" t="s">
         <v>988</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A387" s="9" t="s">
+      <c r="A387" s="7" t="s">
         <v>596</v>
       </c>
-      <c r="B387" s="10" t="s">
+      <c r="B387" s="8" t="s">
         <v>989</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A388" s="9" t="s">
+      <c r="A388" s="7" t="s">
         <v>597</v>
       </c>
-      <c r="B388" s="10" t="s">
+      <c r="B388" s="8" t="s">
         <v>990</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A389" s="9" t="s">
+      <c r="A389" s="7" t="s">
         <v>598</v>
       </c>
-      <c r="B389" s="10" t="s">
+      <c r="B389" s="8" t="s">
         <v>991</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A390" s="9" t="s">
+      <c r="A390" s="7" t="s">
         <v>599</v>
       </c>
-      <c r="B390" s="10" t="s">
+      <c r="B390" s="8" t="s">
         <v>992</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A391" s="9" t="s">
+      <c r="A391" s="7" t="s">
         <v>600</v>
       </c>
-      <c r="B391" s="10" t="s">
+      <c r="B391" s="8" t="s">
         <v>993</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A392" s="9" t="s">
+      <c r="A392" s="7" t="s">
         <v>601</v>
       </c>
-      <c r="B392" s="10" t="s">
+      <c r="B392" s="8" t="s">
         <v>994</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A393" s="9" t="s">
+      <c r="A393" s="7" t="s">
         <v>602</v>
       </c>
-      <c r="B393" s="10" t="s">
+      <c r="B393" s="8" t="s">
         <v>995</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A394" s="9" t="s">
+      <c r="A394" s="7" t="s">
         <v>603</v>
       </c>
-      <c r="B394" s="10" t="s">
+      <c r="B394" s="8" t="s">
         <v>996</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A395" s="9" t="s">
+      <c r="A395" s="7" t="s">
         <v>604</v>
       </c>
-      <c r="B395" s="10" t="s">
+      <c r="B395" s="8" t="s">
         <v>997</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A396" s="9" t="s">
+      <c r="A396" s="7" t="s">
         <v>605</v>
       </c>
-      <c r="B396" s="10" t="s">
+      <c r="B396" s="8" t="s">
         <v>998</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A397" s="9" t="s">
+      <c r="A397" s="7" t="s">
         <v>606</v>
       </c>
-      <c r="B397" s="10" t="s">
+      <c r="B397" s="8" t="s">
         <v>999</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A398" s="9" t="s">
+      <c r="A398" s="7" t="s">
         <v>607</v>
       </c>
-      <c r="B398" s="10" t="s">
+      <c r="B398" s="8" t="s">
         <v>1000</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A399" s="9" t="s">
+      <c r="A399" s="7" t="s">
         <v>608</v>
       </c>
-      <c r="B399" s="10" t="s">
+      <c r="B399" s="8" t="s">
         <v>1001</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A400" s="9" t="s">
+      <c r="A400" s="7" t="s">
         <v>609</v>
       </c>
-      <c r="B400" s="10" t="s">
+      <c r="B400" s="8" t="s">
         <v>1002</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A401" s="9" t="s">
+      <c r="A401" s="7" t="s">
         <v>610</v>
       </c>
-      <c r="B401" s="10" t="s">
+      <c r="B401" s="8" t="s">
         <v>1003</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A402" s="9" t="s">
+      <c r="A402" s="7" t="s">
         <v>611</v>
       </c>
-      <c r="B402" s="10" t="s">
+      <c r="B402" s="8" t="s">
         <v>1004</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A403" s="9" t="s">
+      <c r="A403" s="7" t="s">
         <v>612</v>
       </c>
-      <c r="B403" s="10" t="s">
+      <c r="B403" s="8" t="s">
         <v>1005</v>
       </c>
     </row>
@@ -9766,10 +9791,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E761BF5B-8201-4C29-8B58-2A548BA0A256}">
-  <dimension ref="A1:J54"/>
+  <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8:G8"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9777,9 +9802,9 @@
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.85546875" style="9" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="9"/>
-    <col min="8" max="8" width="9.140625" style="10"/>
+    <col min="4" max="4" width="29.85546875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="7"/>
+    <col min="8" max="8" width="9.140625" style="8"/>
     <col min="9" max="9" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="28.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -9794,10 +9819,10 @@
       <c r="C1" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="7" t="s">
         <v>230</v>
       </c>
       <c r="F1" s="5" t="s">
@@ -9806,7 +9831,7 @@
       <c r="G1" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="8" t="s">
         <v>1139</v>
       </c>
       <c r="I1" s="5" t="s">
@@ -10159,653 +10184,796 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="9">
         <v>1</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="C20" s="9"/>
+      <c r="D20" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="J20" s="8" t="s">
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="11" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="9">
         <v>2</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="C21" s="9"/>
+      <c r="D21" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="J21" s="8" t="s">
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="11" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="9">
         <v>3</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="C22" s="9"/>
+      <c r="D22" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="J22" s="8" t="s">
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="11" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="9">
         <v>4</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="C23" s="9"/>
+      <c r="D23" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="J23" s="8" t="s">
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="11" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="9">
         <v>5</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="C24" s="9"/>
+      <c r="D24" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="J24" s="8" t="s">
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="11" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="9">
         <v>6</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="C25" s="9"/>
+      <c r="D25" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="J25" s="8" t="s">
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="11" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26" s="9">
         <v>7</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="C26" s="9"/>
+      <c r="D26" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="J26" s="8" t="s">
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="11" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="9">
         <v>8</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="C27" s="9"/>
+      <c r="D27" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="J27" s="8" t="s">
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="11" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28" s="9">
         <v>9</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="C28" s="9"/>
+      <c r="D28" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="E28" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="J28" s="8" t="s">
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="11" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29" s="9">
         <v>10</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="C29" s="9"/>
+      <c r="D29" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="J29" s="8" t="s">
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="11" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30" s="9">
         <v>11</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="C30" s="9"/>
+      <c r="D30" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E30" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="J30" s="8" t="s">
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="11" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31" s="9">
         <v>12</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="C31" s="9"/>
+      <c r="D31" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E31" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="J31" s="8" t="s">
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="11" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32" s="9">
         <v>13</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="C32" s="9"/>
+      <c r="D32" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="E32" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="J32" s="8" t="s">
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="11" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B33" s="9">
         <v>14</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="C33" s="9"/>
+      <c r="D33" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="E33" s="9" t="s">
+      <c r="E33" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="J33" s="8" t="s">
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="11" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="34" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="10" t="s">
+    <row r="34" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="12" t="s">
         <v>1140</v>
       </c>
-      <c r="B34" s="10">
+      <c r="B34" s="12">
         <v>1</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D34" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E34" s="9" t="s">
+      <c r="E34" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="H34" s="10" t="s">
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12" t="s">
         <v>1148</v>
       </c>
-      <c r="J34" s="8" t="s">
+      <c r="I34" s="12"/>
+      <c r="J34" s="14" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="35" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="10" t="s">
+    <row r="35" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="12" t="s">
         <v>1140</v>
       </c>
-      <c r="B35" s="10">
+      <c r="B35" s="12">
         <v>2</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="13" t="s">
         <v>1141</v>
       </c>
-      <c r="E35" s="9" t="s">
+      <c r="E35" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="H35" s="10" t="s">
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12" t="s">
         <v>1149</v>
       </c>
-      <c r="J35" s="8" t="s">
+      <c r="I35" s="12"/>
+      <c r="J35" s="14" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="10" t="s">
+    <row r="36" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="12" t="s">
         <v>1140</v>
       </c>
-      <c r="B36" s="10">
+      <c r="B36" s="12">
         <v>3</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D36" s="13" t="s">
         <v>1142</v>
       </c>
-      <c r="E36" s="9" t="s">
+      <c r="E36" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H36" s="10" t="s">
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12" t="s">
         <v>1155</v>
       </c>
-      <c r="J36" s="8" t="s">
+      <c r="I36" s="12"/>
+      <c r="J36" s="14" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="10" t="s">
+    <row r="37" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="12" t="s">
         <v>1140</v>
       </c>
-      <c r="B37" s="10">
+      <c r="B37" s="12">
         <v>4</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C37" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D37" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="E37" s="9" t="s">
+      <c r="E37" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="H37" s="10" t="s">
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12" t="s">
         <v>1154</v>
       </c>
-      <c r="J37" s="8" t="s">
+      <c r="I37" s="12"/>
+      <c r="J37" s="14" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="10" t="s">
+    <row r="38" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="12" t="s">
         <v>1140</v>
       </c>
-      <c r="B38" s="10">
+      <c r="B38" s="12">
         <v>5</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C38" s="12" t="s">
         <v>1131</v>
       </c>
-      <c r="D38" s="9" t="s">
+      <c r="D38" s="13" t="s">
         <v>1143</v>
       </c>
-      <c r="E38" s="9" t="s">
+      <c r="E38" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="H38" s="10" t="s">
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12" t="s">
         <v>1150</v>
       </c>
-      <c r="J38" s="8" t="s">
+      <c r="I38" s="12"/>
+      <c r="J38" s="14" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="39" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="10" t="s">
+    <row r="39" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="12" t="s">
         <v>1140</v>
       </c>
-      <c r="B39" s="10">
+      <c r="B39" s="12">
         <v>6</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C39" s="12" t="s">
         <v>1132</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="D39" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="E39" s="9" t="s">
+      <c r="E39" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="H39" s="10" t="s">
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12" t="s">
         <v>1151</v>
       </c>
-      <c r="J39" s="8" t="s">
+      <c r="I39" s="12"/>
+      <c r="J39" s="14" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="40" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="10" t="s">
+    <row r="40" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="12" t="s">
         <v>1140</v>
       </c>
-      <c r="B40" s="10">
+      <c r="B40" s="12">
         <v>7</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="12" t="s">
         <v>1133</v>
       </c>
-      <c r="D40" s="9" t="s">
+      <c r="D40" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="E40" s="9" t="s">
+      <c r="E40" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="H40" s="10" t="s">
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12" t="s">
         <v>1152</v>
       </c>
-      <c r="J40" s="8" t="s">
+      <c r="I40" s="12"/>
+      <c r="J40" s="14" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="41" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="10" t="s">
+    <row r="41" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="12" t="s">
         <v>1140</v>
       </c>
-      <c r="B41" s="10">
+      <c r="B41" s="12">
         <v>8</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C41" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12" t="s">
+        <v>1171</v>
+      </c>
+      <c r="I41" s="12"/>
+      <c r="J41" s="14" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="12" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B42" s="12">
+        <v>9</v>
+      </c>
+      <c r="C42" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D41" s="9" t="s">
+      <c r="D42" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E41" s="9" t="s">
+      <c r="E42" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="H41" s="10" t="s">
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12" t="s">
         <v>1153</v>
       </c>
-      <c r="J41" s="8" t="s">
+      <c r="I42" s="12"/>
+      <c r="J42" s="14" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="42" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="10" t="s">
+    <row r="43" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="12" t="s">
         <v>1140</v>
       </c>
-      <c r="B42" s="10">
-        <v>9</v>
-      </c>
-      <c r="C42" s="10" t="s">
+      <c r="B43" s="12">
+        <v>10</v>
+      </c>
+      <c r="C43" s="12" t="s">
         <v>1134</v>
       </c>
-      <c r="D42" s="9" t="s">
+      <c r="D43" s="13" t="s">
         <v>1144</v>
       </c>
-      <c r="E42" s="9"/>
-      <c r="J42" s="8" t="s">
+      <c r="E43" s="13" t="s">
+        <v>1172</v>
+      </c>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12" t="s">
+        <v>1149</v>
+      </c>
+      <c r="I43" s="12"/>
+      <c r="J43" s="14" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="43" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="10" t="s">
+    <row r="44" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="12" t="s">
         <v>1140</v>
       </c>
-      <c r="B43" s="10">
-        <v>10</v>
-      </c>
-      <c r="C43" s="10" t="s">
+      <c r="B44" s="12">
+        <v>11</v>
+      </c>
+      <c r="C44" s="12" t="s">
         <v>1135</v>
       </c>
-      <c r="D43" s="9" t="s">
+      <c r="D44" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="E43" s="9"/>
-      <c r="J43" s="8" t="s">
+      <c r="E44" s="13"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="14" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="44" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="10" t="s">
+    <row r="45" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="12" t="s">
         <v>1140</v>
       </c>
-      <c r="B44" s="10">
-        <v>11</v>
-      </c>
-      <c r="C44" s="10" t="s">
+      <c r="B45" s="12">
+        <v>12</v>
+      </c>
+      <c r="C45" s="12" t="s">
         <v>1136</v>
       </c>
-      <c r="D44" s="9" t="s">
+      <c r="D45" s="13" t="s">
         <v>1145</v>
       </c>
-      <c r="E44" s="9"/>
-      <c r="J44" s="8" t="s">
+      <c r="E45" s="13"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="14" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="45" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="10" t="s">
+    <row r="46" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="12" t="s">
         <v>1140</v>
       </c>
-      <c r="B45" s="10">
-        <v>12</v>
-      </c>
-      <c r="C45" s="10" t="s">
+      <c r="B46" s="12">
+        <v>13</v>
+      </c>
+      <c r="C46" s="12" t="s">
         <v>1137</v>
       </c>
-      <c r="D45" s="9" t="s">
+      <c r="D46" s="13" t="s">
         <v>1146</v>
       </c>
-      <c r="E45" s="9"/>
-      <c r="J45" s="8" t="s">
+      <c r="E46" s="13"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="14" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="46" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="10" t="s">
+    <row r="47" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="12" t="s">
         <v>1140</v>
       </c>
-      <c r="B46" s="10">
-        <v>13</v>
-      </c>
-      <c r="C46" s="10" t="s">
+      <c r="B47" s="12">
+        <v>14</v>
+      </c>
+      <c r="C47" s="12" t="s">
         <v>1138</v>
       </c>
-      <c r="D46" s="9" t="s">
+      <c r="D47" s="13" t="s">
         <v>1147</v>
       </c>
-      <c r="E46" s="9"/>
-      <c r="H46" s="10" t="s">
+      <c r="E47" s="13"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12" t="s">
         <v>1156</v>
       </c>
-      <c r="J46" s="8" t="s">
+      <c r="I47" s="12"/>
+      <c r="J47" s="14" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>114</v>
       </c>
-      <c r="B47">
+      <c r="B48">
         <v>1</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="C48" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="D47" s="9" t="s">
+      <c r="D48" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="F47" s="10">
+      <c r="F48" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="10" t="s">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="B48">
+      <c r="B49">
         <v>2</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C49" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="D48" s="9" t="s">
+      <c r="D49" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F48" s="10">
+      <c r="F49" s="8">
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="10" t="s">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="B49" s="10">
+      <c r="B50" s="8">
         <v>3</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="C50" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="D49" s="9" t="s">
+      <c r="D50" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F49" s="10">
+      <c r="F50" s="8">
         <v>90</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="10" t="s">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="B50" s="10">
+      <c r="B51" s="8">
         <v>4</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C51" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="D50" s="9" t="s">
+      <c r="D51" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F50" s="10">
+      <c r="F51" s="8">
         <v>135</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="10" t="s">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="B51" s="10">
+      <c r="B52" s="8">
         <v>5</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C52" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="D51" s="9" t="s">
+      <c r="D52" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F51" s="10">
+      <c r="F52" s="8">
         <v>180</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="10" t="s">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="B52" s="10">
+      <c r="B53" s="8">
         <v>6</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="C53" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="D52" s="9" t="s">
+      <c r="D53" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="F52" s="10">
+      <c r="F53" s="8">
         <v>225</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="10" t="s">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="B53" s="10">
+      <c r="B54" s="8">
         <v>7</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="C54" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="D53" s="9" t="s">
+      <c r="D54" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="F53" s="10">
+      <c r="F54" s="8">
         <v>270</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="10" t="s">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="B54" s="10">
+      <c r="B55" s="8">
         <v>8</v>
       </c>
-      <c r="C54" s="10" t="s">
+      <c r="C55" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="D54" s="9" t="s">
+      <c r="D55" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="F54" s="10">
+      <c r="F55" s="8">
         <v>315</v>
       </c>
     </row>

--- a/data-raw/metar_config.xlsx
+++ b/data-raw/metar_config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mat\Documents\R\metar\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CAD6879-7D25-43B2-80DC-3A58EB9101F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91761EF1-A07F-475D-B7B7-405AEF65DABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" tabRatio="731" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" tabRatio="731" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PARA" sheetId="4" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1588" uniqueCount="1173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1590" uniqueCount="1175">
   <si>
     <t>FG</t>
   </si>
@@ -3543,9 +3543,6 @@
     <t>Canada Automated</t>
   </si>
   <si>
-    <t>AUTO /////KT //// ////// 17/// Q//// NOSIG</t>
-  </si>
-  <si>
     <t>Empty groups</t>
   </si>
   <si>
@@ -3562,6 +3559,15 @@
   </si>
   <si>
     <t>VC TS</t>
+  </si>
+  <si>
+    <t>Missing dew point</t>
+  </si>
+  <si>
+    <t>KOKK 300456Z AUTO 29005KT 10SM CLR 20/ A3001 RMK AO2 SLP156 T0200</t>
+  </si>
+  <si>
+    <t>CAXX 271750Z AUTO /////KT //// ////// 17/// Q//// NOSIG</t>
   </si>
 </sst>
 </file>
@@ -3913,7 +3919,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2900C6E8-A8B5-4407-A7A1-C33011B0ABA6}">
   <dimension ref="A1:I64"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
@@ -4628,13 +4634,13 @@
     </row>
     <row r="34" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C34" s="8" t="s">
         <v>1168</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>1168</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>1169</v>
       </c>
       <c r="F34" s="8" t="s">
         <v>122</v>
@@ -5295,9 +5301,9 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AB3F69E-B179-4C43-80DD-D8065CE98EE1}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
@@ -5577,10 +5583,21 @@
         <v>24</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="C25" t="s">
-        <v>1166</v>
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
+        <v>25</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>1173</v>
       </c>
     </row>
   </sheetData>
@@ -9793,8 +9810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E761BF5B-8201-4C29-8B58-2A548BA0A256}">
   <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10684,7 +10701,7 @@
         <v>73</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="E41" s="13" t="s">
         <v>68</v>
@@ -10692,7 +10709,7 @@
       <c r="F41" s="12"/>
       <c r="G41" s="12"/>
       <c r="H41" s="12" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="I41" s="12"/>
       <c r="J41" s="14" t="s">
@@ -10739,7 +10756,7 @@
         <v>1144</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="F43" s="12"/>
       <c r="G43" s="12"/>
